--- a/BackTest/2019-10-15 BackTest KNC.xlsx
+++ b/BackTest/2019-10-15 BackTest KNC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>231.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>231.4</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>231.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>231.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>4</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>231.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>5</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20</v>
+      </c>
       <c r="L17" t="n">
         <v>231.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-20</v>
+      </c>
       <c r="L18" t="n">
         <v>231.1</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>6</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-20</v>
+      </c>
       <c r="L19" t="n">
         <v>231</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>6</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-20</v>
+      </c>
       <c r="L20" t="n">
         <v>230.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>7</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>230.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>7</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
       <c r="L22" t="n">
         <v>230.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L23" t="n">
         <v>231</v>
@@ -1466,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="K24" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>231</v>
@@ -1515,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="K25" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L25" t="n">
         <v>231.2</v>
@@ -1564,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>231.1</v>
@@ -1613,7 +1635,7 @@
         <v>15</v>
       </c>
       <c r="K27" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L27" t="n">
         <v>231.3</v>
@@ -1711,7 +1733,7 @@
         <v>17</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L29" t="n">
         <v>231.4</v>
@@ -1760,7 +1782,7 @@
         <v>18</v>
       </c>
       <c r="K30" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L30" t="n">
         <v>231.4</v>
@@ -1809,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="n">
-        <v>-11.11111111111111</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L31" t="n">
         <v>231.2</v>
@@ -1911,7 +1933,7 @@
         <v>21</v>
       </c>
       <c r="K33" t="n">
-        <v>5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L33" t="n">
         <v>231.2</v>
@@ -1962,7 +1984,7 @@
         <v>21</v>
       </c>
       <c r="K34" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>231.4</v>
@@ -2013,7 +2035,7 @@
         <v>21</v>
       </c>
       <c r="K35" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L35" t="n">
         <v>231.4</v>
@@ -2064,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L36" t="n">
         <v>231.5</v>
@@ -2115,7 +2137,7 @@
         <v>23</v>
       </c>
       <c r="K37" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L37" t="n">
         <v>231.5</v>
@@ -2166,7 +2188,7 @@
         <v>23</v>
       </c>
       <c r="K38" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>231.6</v>
@@ -2217,7 +2239,7 @@
         <v>24</v>
       </c>
       <c r="K39" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>231.7</v>
@@ -2268,7 +2290,7 @@
         <v>24</v>
       </c>
       <c r="K40" t="n">
-        <v>11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L40" t="n">
         <v>231.9</v>
@@ -2319,7 +2341,7 @@
         <v>24</v>
       </c>
       <c r="K41" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>232.2</v>
@@ -2370,7 +2392,7 @@
         <v>24</v>
       </c>
       <c r="K42" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>232.3</v>
@@ -2421,7 +2443,7 @@
         <v>26</v>
       </c>
       <c r="K43" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L43" t="n">
         <v>232.2</v>
@@ -2472,7 +2494,7 @@
         <v>28</v>
       </c>
       <c r="K44" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>232.3</v>
@@ -2523,7 +2545,7 @@
         <v>28</v>
       </c>
       <c r="K45" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>232.4</v>
@@ -2625,7 +2647,7 @@
         <v>28</v>
       </c>
       <c r="K47" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L47" t="n">
         <v>232.7</v>
@@ -2676,7 +2698,7 @@
         <v>28</v>
       </c>
       <c r="K48" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>232.8</v>
@@ -2727,7 +2749,7 @@
         <v>28</v>
       </c>
       <c r="K49" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>232.8</v>
@@ -2778,7 +2800,7 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>232.8</v>
@@ -2829,7 +2851,7 @@
         <v>28</v>
       </c>
       <c r="K51" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>232.8</v>
@@ -2880,7 +2902,7 @@
         <v>28</v>
       </c>
       <c r="K52" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>232.8</v>
@@ -2930,9 +2952,7 @@
       <c r="J53" t="n">
         <v>28</v>
       </c>
-      <c r="K53" t="n">
-        <v>14.28571428571428</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>233</v>
       </c>
@@ -2981,9 +3001,7 @@
       <c r="J54" t="n">
         <v>28</v>
       </c>
-      <c r="K54" t="n">
-        <v>14.28571428571428</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>233</v>
       </c>
@@ -3032,9 +3050,7 @@
       <c r="J55" t="n">
         <v>28</v>
       </c>
-      <c r="K55" t="n">
-        <v>14.28571428571428</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>233</v>
       </c>
@@ -3083,9 +3099,7 @@
       <c r="J56" t="n">
         <v>28</v>
       </c>
-      <c r="K56" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>233</v>
       </c>
@@ -3135,7 +3149,7 @@
         <v>29</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L57" t="n">
         <v>232.9</v>
@@ -3186,7 +3200,7 @@
         <v>30</v>
       </c>
       <c r="K58" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>232.9</v>
@@ -3441,7 +3455,7 @@
         <v>30</v>
       </c>
       <c r="K63" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>232.9</v>
@@ -3594,7 +3608,7 @@
         <v>32</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>232.8</v>
@@ -3951,7 +3965,7 @@
         <v>32</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
         <v>232.9</v>
@@ -4001,9 +4015,7 @@
       <c r="J74" t="n">
         <v>32</v>
       </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>233</v>
       </c>
@@ -4052,9 +4064,7 @@
       <c r="J75" t="n">
         <v>32</v>
       </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>233</v>
       </c>
@@ -4103,9 +4113,7 @@
       <c r="J76" t="n">
         <v>32</v>
       </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>233</v>
       </c>
@@ -4155,7 +4163,7 @@
         <v>33</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>232.9</v>
@@ -4206,7 +4214,7 @@
         <v>34</v>
       </c>
       <c r="K78" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>232.7</v>
@@ -4308,7 +4316,7 @@
         <v>37</v>
       </c>
       <c r="K80" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L80" t="n">
         <v>232.6</v>
@@ -4410,7 +4418,7 @@
         <v>40</v>
       </c>
       <c r="K82" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L82" t="n">
         <v>232.4</v>
@@ -4461,7 +4469,7 @@
         <v>40</v>
       </c>
       <c r="K83" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L83" t="n">
         <v>232.2</v>
@@ -4512,7 +4520,7 @@
         <v>41</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L84" t="n">
         <v>232.1</v>
@@ -4614,7 +4622,7 @@
         <v>43</v>
       </c>
       <c r="K86" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>232</v>
@@ -4665,7 +4673,7 @@
         <v>44</v>
       </c>
       <c r="K87" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>231.9</v>
@@ -4716,7 +4724,7 @@
         <v>44</v>
       </c>
       <c r="K88" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L88" t="n">
         <v>231.9</v>
@@ -4767,7 +4775,7 @@
         <v>46</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L89" t="n">
         <v>231.9</v>
@@ -4818,7 +4826,7 @@
         <v>48</v>
       </c>
       <c r="K90" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L90" t="n">
         <v>231.8</v>
@@ -4869,7 +4877,7 @@
         <v>48</v>
       </c>
       <c r="K91" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>231.6</v>
@@ -4920,7 +4928,7 @@
         <v>48</v>
       </c>
       <c r="K92" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>231.6</v>
@@ -4971,7 +4979,7 @@
         <v>48</v>
       </c>
       <c r="K93" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>231.6</v>
@@ -5022,7 +5030,7 @@
         <v>48</v>
       </c>
       <c r="K94" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>231.5</v>
@@ -5073,7 +5081,7 @@
         <v>49</v>
       </c>
       <c r="K95" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>231.2</v>
@@ -5124,7 +5132,7 @@
         <v>50</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>231.1</v>
@@ -5175,7 +5183,7 @@
         <v>51</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>231.2</v>
@@ -5226,7 +5234,7 @@
         <v>51</v>
       </c>
       <c r="K98" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L98" t="n">
         <v>231.3</v>
@@ -5277,7 +5285,7 @@
         <v>52</v>
       </c>
       <c r="K99" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>231.1</v>
@@ -5328,7 +5336,7 @@
         <v>52</v>
       </c>
       <c r="K100" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>231.1</v>
@@ -5532,7 +5540,7 @@
         <v>54</v>
       </c>
       <c r="K104" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L104" t="n">
         <v>231</v>
@@ -5583,7 +5591,7 @@
         <v>54</v>
       </c>
       <c r="K105" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>231.1</v>

--- a/BackTest/2019-10-15 BackTest KNC.xlsx
+++ b/BackTest/2019-10-15 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -475,25 +445,21 @@
         <v>231</v>
       </c>
       <c r="F2" t="n">
-        <v>563.801</v>
+        <v>2.1489</v>
       </c>
       <c r="G2" t="n">
-        <v>229.65</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>128.279</v>
       </c>
       <c r="G3" t="n">
-        <v>229.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>231</v>
+      </c>
+      <c r="K3" t="n">
+        <v>231</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" t="n">
-        <v>2220.826</v>
+        <v>104.2884</v>
       </c>
       <c r="G4" t="n">
-        <v>229.7833333333333</v>
+        <v>-25</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>230</v>
+      </c>
+      <c r="K4" t="n">
+        <v>231</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F5" t="n">
-        <v>525</v>
+        <v>3.1119</v>
       </c>
       <c r="G5" t="n">
-        <v>229.85</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>230</v>
+      </c>
+      <c r="K5" t="n">
+        <v>231</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F6" t="n">
-        <v>2.0998</v>
+        <v>500</v>
       </c>
       <c r="G6" t="n">
-        <v>229.9166666666667</v>
+        <v>-20</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>230</v>
+      </c>
+      <c r="K6" t="n">
+        <v>230</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>351.8</v>
       </c>
       <c r="G7" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>230</v>
+      </c>
+      <c r="K7" t="n">
+        <v>230</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -729,29 +687,29 @@
         <v>231</v>
       </c>
       <c r="F8" t="n">
-        <v>56.03752034632035</v>
+        <v>2.1116</v>
       </c>
       <c r="G8" t="n">
-        <v>230.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>230</v>
+      </c>
+      <c r="K8" t="n">
+        <v>230</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +718,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F9" t="n">
-        <v>200</v>
+        <v>1.0712</v>
       </c>
       <c r="G9" t="n">
-        <v>230.1166666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>231</v>
+      </c>
+      <c r="K9" t="n">
+        <v>231</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +757,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E10" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0198</v>
+        <v>300</v>
       </c>
       <c r="G10" t="n">
-        <v>230.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>231</v>
+      </c>
+      <c r="K10" t="n">
+        <v>231</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +800,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11" t="n">
-        <v>641</v>
+        <v>5.0999</v>
       </c>
       <c r="G11" t="n">
-        <v>230.3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>230</v>
+      </c>
+      <c r="K11" t="n">
+        <v>231</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +843,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C12" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D12" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E12" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F12" t="n">
-        <v>3631.2489</v>
+        <v>166.4487</v>
       </c>
       <c r="G12" t="n">
-        <v>230.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>231.4</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>231</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +882,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" t="n">
-        <v>2387.4168</v>
+        <v>134</v>
       </c>
       <c r="G13" t="n">
-        <v>230.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>231.4</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>231</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,42 +928,38 @@
         <v>231</v>
       </c>
       <c r="C14" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D14" t="n">
         <v>231</v>
       </c>
       <c r="E14" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F14" t="n">
-        <v>698.623</v>
+        <v>1285.8509</v>
       </c>
       <c r="G14" t="n">
-        <v>230.4666666666667</v>
+        <v>20</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="K14" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L14" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>231</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,33 +980,25 @@
         <v>230</v>
       </c>
       <c r="F15" t="n">
-        <v>9086.679400000001</v>
+        <v>7050</v>
       </c>
       <c r="G15" t="n">
-        <v>230.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="K15" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>231</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +1007,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C16" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D16" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E16" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>264.1527</v>
       </c>
       <c r="G16" t="n">
-        <v>230.5333333333333</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>231</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +1050,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C17" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D17" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E17" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F17" t="n">
-        <v>2888.4447</v>
+        <v>2.1726</v>
       </c>
       <c r="G17" t="n">
-        <v>230.6</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="K17" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L17" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>231</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +1093,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D18" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E18" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F18" t="n">
-        <v>3.1182</v>
+        <v>450</v>
       </c>
       <c r="G18" t="n">
-        <v>230.6833333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="K18" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L18" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>231</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1136,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C19" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D19" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E19" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>3.1887</v>
       </c>
       <c r="G19" t="n">
-        <v>230.7333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="K19" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L19" t="n">
-        <v>231</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>231</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1279,33 +1191,29 @@
         <v>231</v>
       </c>
       <c r="F20" t="n">
-        <v>253</v>
+        <v>25.448</v>
       </c>
       <c r="G20" t="n">
-        <v>230.8</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="K20" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L20" t="n">
-        <v>230.9</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>231</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1222,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F21" t="n">
-        <v>1.8965</v>
+        <v>1791.141</v>
       </c>
       <c r="G21" t="n">
-        <v>230.85</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>230.9</v>
+        <v>231</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1265,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F22" t="n">
-        <v>39.6293</v>
+        <v>40.8633</v>
       </c>
       <c r="G22" t="n">
-        <v>230.8833333333333</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="K22" t="n">
-        <v>20</v>
-      </c>
-      <c r="L22" t="n">
-        <v>230.9</v>
+        <v>231</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>231.15</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1308,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F23" t="n">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="G23" t="n">
-        <v>230.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="K23" t="n">
-        <v>50</v>
-      </c>
-      <c r="L23" t="n">
-        <v>231</v>
+        <v>231</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1351,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C24" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D24" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E24" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F24" t="n">
-        <v>449.325</v>
+        <v>110.6655796536797</v>
       </c>
       <c r="G24" t="n">
-        <v>230.9166666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>231</v>
+        <v>231</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>231.15</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1394,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C25" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E25" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F25" t="n">
-        <v>2.0998</v>
+        <v>178.7088</v>
       </c>
       <c r="G25" t="n">
-        <v>230.9166666666667</v>
+        <v>-100</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="K25" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L25" t="n">
-        <v>231.2</v>
+        <v>231</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1437,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C26" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D26" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E26" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F26" t="n">
-        <v>2858.0508</v>
+        <v>1783.7009</v>
       </c>
       <c r="G26" t="n">
-        <v>230.9166666666667</v>
+        <v>-100</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>231.1</v>
+        <v>231</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>231.15</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,48 +1480,42 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C27" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D27" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E27" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1029.1125</v>
       </c>
       <c r="G27" t="n">
-        <v>230.9333333333333</v>
+        <v>-100</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="K27" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L27" t="n">
-        <v>231.3</v>
+        <v>231</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="28">
@@ -1669,35 +1535,25 @@
         <v>231</v>
       </c>
       <c r="F28" t="n">
-        <v>663.1648</v>
+        <v>3486.4665</v>
       </c>
       <c r="G28" t="n">
-        <v>230.95</v>
+        <v>-100</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>231.3</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,47 +1562,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D29" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F29" t="n">
-        <v>2.8706</v>
-      </c>
-      <c r="G29" t="n">
-        <v>230.9666666666667</v>
-      </c>
+        <v>5104.4179</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="K29" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L29" t="n">
-        <v>231.4</v>
+        <v>231</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1767,35 +1615,27 @@
         <v>231</v>
       </c>
       <c r="F30" t="n">
-        <v>13730.1802</v>
-      </c>
-      <c r="G30" t="n">
-        <v>230.9833333333333</v>
-      </c>
+        <v>2.1109</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="K30" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L30" t="n">
-        <v>231.4</v>
+        <v>231</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>231.15</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,49 +1644,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C31" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D31" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E31" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F31" t="n">
-        <v>500</v>
-      </c>
-      <c r="G31" t="n">
-        <v>230.9833333333333</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="K31" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L31" t="n">
-        <v>231.2</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>231.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>231.1333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1681,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C32" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E32" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F32" t="n">
-        <v>195</v>
-      </c>
-      <c r="G32" t="n">
-        <v>231</v>
-      </c>
+        <v>563.801</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>231.2</v>
+        <v>231</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>231.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>231.1666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1909,46 +1725,36 @@
         <v>231</v>
       </c>
       <c r="C33" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D33" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E33" t="n">
         <v>231</v>
       </c>
       <c r="F33" t="n">
-        <v>2060.6714</v>
-      </c>
-      <c r="G33" t="n">
-        <v>231.0333333333333</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="K33" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L33" t="n">
-        <v>231.2</v>
+        <v>231</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1763,35 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C34" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F34" t="n">
-        <v>1985</v>
-      </c>
-      <c r="G34" t="n">
-        <v>231.0666666666667</v>
-      </c>
+        <v>2220.826</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>231.4</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>231.2333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1800,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D35" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E35" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F35" t="n">
-        <v>3548.6547</v>
-      </c>
-      <c r="G35" t="n">
-        <v>231.1</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="K35" t="n">
-        <v>25</v>
-      </c>
-      <c r="L35" t="n">
-        <v>231.4</v>
+        <v>231</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="N35" t="n">
-        <v>231.2666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2071,37 +1853,27 @@
         <v>231</v>
       </c>
       <c r="F36" t="n">
-        <v>6873.5043</v>
-      </c>
-      <c r="G36" t="n">
-        <v>231.1166666666667</v>
-      </c>
+        <v>2.0998</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="K36" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L36" t="n">
-        <v>231.5</v>
+        <v>231</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="N36" t="n">
-        <v>231.2666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1882,35 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D37" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E37" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F37" t="n">
-        <v>452.6474</v>
-      </c>
-      <c r="G37" t="n">
-        <v>231.15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="K37" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L37" t="n">
-        <v>231.5</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>231.4</v>
-      </c>
-      <c r="N37" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1919,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E38" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F38" t="n">
-        <v>443.3526</v>
-      </c>
-      <c r="G38" t="n">
-        <v>231.1666666666667</v>
-      </c>
+        <v>56.03752034632035</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>231.6</v>
+        <v>231</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>231.45</v>
-      </c>
-      <c r="N38" t="n">
-        <v>231.3333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1960,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C39" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D39" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E39" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F39" t="n">
-        <v>2.0998</v>
+        <v>200</v>
       </c>
       <c r="G39" t="n">
-        <v>231.2</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="K39" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L39" t="n">
-        <v>231.7</v>
+        <v>231</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>231.55</v>
-      </c>
-      <c r="N39" t="n">
-        <v>231.3666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +2003,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D40" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E40" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F40" t="n">
-        <v>630.901</v>
+        <v>2.0198</v>
       </c>
       <c r="G40" t="n">
-        <v>231.25</v>
+        <v>100</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="K40" t="n">
-        <v>60</v>
-      </c>
-      <c r="L40" t="n">
-        <v>231.9</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>231.65</v>
-      </c>
-      <c r="N40" t="n">
-        <v>231.4</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +2042,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C41" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D41" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E41" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F41" t="n">
-        <v>487.7296</v>
+        <v>641</v>
       </c>
       <c r="G41" t="n">
-        <v>231.2833333333333</v>
+        <v>100</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="K41" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L41" t="n">
-        <v>232.2</v>
+        <v>232</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>231.7</v>
-      </c>
-      <c r="N41" t="n">
-        <v>231.4333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +2085,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C42" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D42" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E42" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>3631.2489</v>
       </c>
       <c r="G42" t="n">
-        <v>231.3333333333333</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="K42" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>232.3</v>
+        <v>232</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>231.75</v>
-      </c>
-      <c r="N42" t="n">
-        <v>231.4666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,37 +2140,25 @@
         <v>231</v>
       </c>
       <c r="F43" t="n">
-        <v>178.1433</v>
+        <v>2387.4168</v>
       </c>
       <c r="G43" t="n">
-        <v>231.35</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="K43" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L43" t="n">
-        <v>232.2</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>231.7</v>
-      </c>
-      <c r="N43" t="n">
-        <v>231.4666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +2167,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C44" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D44" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E44" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F44" t="n">
-        <v>2.1076</v>
+        <v>698.623</v>
       </c>
       <c r="G44" t="n">
-        <v>231.3833333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="K44" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>232.3</v>
+        <v>232</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>231.85</v>
-      </c>
-      <c r="N44" t="n">
-        <v>231.5666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +2210,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C45" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D45" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E45" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F45" t="n">
-        <v>17</v>
+        <v>9086.679400000001</v>
       </c>
       <c r="G45" t="n">
-        <v>231.4333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="K45" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L45" t="n">
-        <v>232.4</v>
+        <v>232</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="N45" t="n">
-        <v>231.6666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,49 +2253,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C46" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D46" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E46" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F46" t="n">
-        <v>253.295</v>
+        <v>15</v>
       </c>
       <c r="G46" t="n">
-        <v>231.45</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="K46" t="n">
-        <v>20</v>
-      </c>
-      <c r="L46" t="n">
-        <v>232.6</v>
+        <v>232</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>232.05</v>
-      </c>
-      <c r="N46" t="n">
-        <v>231.7333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2296,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C47" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D47" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E47" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F47" t="n">
-        <v>4238</v>
+        <v>2888.4447</v>
       </c>
       <c r="G47" t="n">
-        <v>231.4666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="K47" t="n">
-        <v>20</v>
-      </c>
-      <c r="L47" t="n">
-        <v>232.7</v>
+        <v>232</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>232.1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>231.8333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2339,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C48" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D48" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E48" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F48" t="n">
-        <v>854.4129</v>
+        <v>3.1182</v>
       </c>
       <c r="G48" t="n">
-        <v>231.4833333333333</v>
+        <v>-20</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>232.8</v>
+        <v>232</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>232.2</v>
-      </c>
-      <c r="N48" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2382,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C49" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D49" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E49" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F49" t="n">
-        <v>992.8022999999999</v>
+        <v>300</v>
       </c>
       <c r="G49" t="n">
-        <v>231.5</v>
+        <v>-20</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>232.8</v>
+        <v>232</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>232.25</v>
-      </c>
-      <c r="N49" t="n">
-        <v>231.9666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,49 +2425,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C50" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D50" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E50" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F50" t="n">
-        <v>714.1097</v>
+        <v>253</v>
       </c>
       <c r="G50" t="n">
-        <v>231.5333333333333</v>
+        <v>-20</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>232.8</v>
+        <v>232</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>232.35</v>
-      </c>
-      <c r="N50" t="n">
-        <v>232.0333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,49 +2468,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C51" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D51" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E51" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F51" t="n">
-        <v>626</v>
+        <v>1.8965</v>
       </c>
       <c r="G51" t="n">
-        <v>231.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>232.8</v>
+        <v>232</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="N51" t="n">
-        <v>232.0666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2878,46 +2514,38 @@
         <v>232</v>
       </c>
       <c r="C52" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D52" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E52" t="n">
         <v>232</v>
       </c>
       <c r="F52" t="n">
-        <v>2477.7854</v>
+        <v>39.6293</v>
       </c>
       <c r="G52" t="n">
-        <v>231.6</v>
+        <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="K52" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>232.8</v>
+        <v>232</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>232.55</v>
-      </c>
-      <c r="N52" t="n">
-        <v>232.1</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,47 +2554,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C53" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D53" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E53" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F53" t="n">
-        <v>10725.0357</v>
+        <v>49</v>
       </c>
       <c r="G53" t="n">
-        <v>231.6333333333333</v>
+        <v>50</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>28</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="K53" t="n">
+        <v>232</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="N53" t="n">
-        <v>232.1333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2975,47 +2597,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C54" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D54" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E54" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F54" t="n">
-        <v>3159</v>
+        <v>449.325</v>
       </c>
       <c r="G54" t="n">
-        <v>231.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>28</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="K54" t="n">
+        <v>232</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>232.65</v>
-      </c>
-      <c r="N54" t="n">
-        <v>232.2333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3024,48 +2640,42 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C55" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D55" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E55" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F55" t="n">
-        <v>238</v>
+        <v>2.0998</v>
       </c>
       <c r="G55" t="n">
-        <v>231.7</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>28</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="K55" t="n">
+        <v>232</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>232.7</v>
-      </c>
-      <c r="N55" t="n">
-        <v>232.2666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="56">
@@ -3073,47 +2683,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C56" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D56" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E56" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F56" t="n">
-        <v>2546.9318</v>
+        <v>2858.0508</v>
       </c>
       <c r="G56" t="n">
-        <v>231.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>28</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="K56" t="n">
+        <v>232</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="N56" t="n">
-        <v>232.3666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,37 +2738,25 @@
         <v>232</v>
       </c>
       <c r="F57" t="n">
-        <v>1985</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>231.75</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="K57" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L57" t="n">
-        <v>232.9</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="N57" t="n">
-        <v>232.3666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3173,49 +2765,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C58" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D58" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E58" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F58" t="n">
-        <v>700.1729</v>
+        <v>663.1648</v>
       </c>
       <c r="G58" t="n">
-        <v>231.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>232.9</v>
+        <v>230</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>232.85</v>
-      </c>
-      <c r="N58" t="n">
-        <v>232.4333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,49 +2808,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C59" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D59" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E59" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F59" t="n">
-        <v>721</v>
+        <v>2.8706</v>
       </c>
       <c r="G59" t="n">
-        <v>231.8166666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>232.9</v>
+        <v>230</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>232.85</v>
-      </c>
-      <c r="N59" t="n">
-        <v>232.4666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3275,49 +2851,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C60" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D60" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E60" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F60" t="n">
-        <v>2565.0665</v>
+        <v>13730.1802</v>
       </c>
       <c r="G60" t="n">
-        <v>231.85</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>232.9</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>232.85</v>
-      </c>
-      <c r="N60" t="n">
-        <v>232.5333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,49 +2890,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C61" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D61" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E61" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F61" t="n">
-        <v>9348.3385</v>
+        <v>500</v>
       </c>
       <c r="G61" t="n">
-        <v>231.8833333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>232.9</v>
+        <v>232</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>232.85</v>
-      </c>
-      <c r="N61" t="n">
-        <v>232.6333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3377,49 +2933,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C62" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D62" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E62" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F62" t="n">
-        <v>1703</v>
+        <v>195</v>
       </c>
       <c r="G62" t="n">
-        <v>231.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>232.9</v>
+        <v>232</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>232.85</v>
-      </c>
-      <c r="N62" t="n">
-        <v>232.6666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3428,49 +2976,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C63" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D63" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E63" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F63" t="n">
-        <v>836.8572</v>
+        <v>2060.6714</v>
       </c>
       <c r="G63" t="n">
-        <v>231.95</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>232.9</v>
+        <v>232</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>232.95</v>
-      </c>
-      <c r="N63" t="n">
-        <v>232.7</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,40 +3028,32 @@
         <v>232</v>
       </c>
       <c r="E64" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F64" t="n">
-        <v>23498.6824</v>
+        <v>1985</v>
       </c>
       <c r="G64" t="n">
-        <v>231.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="K64" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L64" t="n">
-        <v>232.8</v>
+        <v>232</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N64" t="n">
-        <v>232.7</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,46 +3065,38 @@
         <v>232</v>
       </c>
       <c r="C65" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D65" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E65" t="n">
         <v>232</v>
       </c>
       <c r="F65" t="n">
-        <v>5956</v>
+        <v>3548.6547</v>
       </c>
       <c r="G65" t="n">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>232.8</v>
+        <v>232</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N65" t="n">
-        <v>232.7333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,49 +3105,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C66" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D66" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E66" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F66" t="n">
-        <v>538.8383</v>
+        <v>6873.5043</v>
       </c>
       <c r="G66" t="n">
-        <v>232.0333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="K66" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L66" t="n">
-        <v>232.8</v>
+        <v>232</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N66" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,49 +3148,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C67" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D67" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E67" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F67" t="n">
-        <v>6</v>
+        <v>452.6474</v>
       </c>
       <c r="G67" t="n">
-        <v>232.0666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>232.9</v>
+        <v>232</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N67" t="n">
-        <v>232.8333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3683,49 +3191,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C68" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D68" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E68" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F68" t="n">
-        <v>405.8358</v>
+        <v>443.3526</v>
       </c>
       <c r="G68" t="n">
-        <v>232.1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>232.9</v>
+        <v>232</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N68" t="n">
-        <v>232.8666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3746,37 +3246,29 @@
         <v>233</v>
       </c>
       <c r="F69" t="n">
-        <v>1099.764</v>
+        <v>2.0998</v>
       </c>
       <c r="G69" t="n">
-        <v>232.1166666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>232.9</v>
+        <v>232</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N69" t="n">
-        <v>232.8666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3797,37 +3289,29 @@
         <v>233</v>
       </c>
       <c r="F70" t="n">
-        <v>330.5557</v>
+        <v>630.901</v>
       </c>
       <c r="G70" t="n">
-        <v>232.1333333333333</v>
+        <v>60</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>232.9</v>
+        <v>232</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N70" t="n">
-        <v>232.8666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,37 +3332,29 @@
         <v>233</v>
       </c>
       <c r="F71" t="n">
-        <v>612.3544000000001</v>
+        <v>487.7296</v>
       </c>
       <c r="G71" t="n">
-        <v>232.15</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>232.9</v>
+        <v>232</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N71" t="n">
-        <v>232.8666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3899,37 +3375,29 @@
         <v>233</v>
       </c>
       <c r="F72" t="n">
-        <v>1378</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>232.1666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>232.9</v>
+        <v>232</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N72" t="n">
-        <v>232.8666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,49 +3406,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C73" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D73" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E73" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F73" t="n">
-        <v>767</v>
+        <v>178.1433</v>
       </c>
       <c r="G73" t="n">
-        <v>232.2</v>
+        <v>-20</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="K73" t="n">
-        <v>100</v>
-      </c>
-      <c r="L73" t="n">
-        <v>232.9</v>
+        <v>232</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N73" t="n">
-        <v>232.9333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,36 +3461,30 @@
         <v>233</v>
       </c>
       <c r="F74" t="n">
-        <v>167.382</v>
+        <v>2.1076</v>
       </c>
       <c r="G74" t="n">
-        <v>232.25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>32</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="K74" t="n">
+        <v>232</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N74" t="n">
-        <v>232.9333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
-        <v>1</v>
+        <v>0.9993103448275863</v>
       </c>
     </row>
     <row r="75">
@@ -4050,35 +3504,29 @@
         <v>233</v>
       </c>
       <c r="F75" t="n">
-        <v>16017.206</v>
+        <v>17</v>
       </c>
       <c r="G75" t="n">
-        <v>232.3</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>32</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>233</v>
+        <v>233</v>
+      </c>
+      <c r="K75" t="n">
+        <v>233</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N75" t="n">
-        <v>232.9333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,35 +3547,25 @@
         <v>233</v>
       </c>
       <c r="F76" t="n">
-        <v>17.167</v>
+        <v>253.295</v>
       </c>
       <c r="G76" t="n">
-        <v>232.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>32</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>233</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="K76" t="n">
+        <v>233</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N76" t="n">
-        <v>232.9333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,49 +3574,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C77" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D77" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E77" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F77" t="n">
-        <v>6575.5348</v>
+        <v>4238</v>
       </c>
       <c r="G77" t="n">
-        <v>232.3666666666667</v>
+        <v>20</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="K77" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L77" t="n">
-        <v>232.9</v>
+        <v>233</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N77" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,49 +3617,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C78" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E78" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F78" t="n">
-        <v>1128.7392</v>
+        <v>854.4129</v>
       </c>
       <c r="G78" t="n">
-        <v>232.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="K78" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L78" t="n">
-        <v>232.7</v>
+        <v>233</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="N78" t="n">
-        <v>232.8333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,7 +3660,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C79" t="n">
         <v>233</v>
@@ -4247,40 +3669,28 @@
         <v>233</v>
       </c>
       <c r="E79" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F79" t="n">
-        <v>500</v>
+        <v>992.8022999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>232.4</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>232.7</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="N79" t="n">
-        <v>232.8333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4289,49 +3699,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C80" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E80" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F80" t="n">
-        <v>891.3626</v>
+        <v>714.1097</v>
       </c>
       <c r="G80" t="n">
-        <v>232.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="K80" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L80" t="n">
-        <v>232.6</v>
+        <v>233</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>232.75</v>
-      </c>
-      <c r="N80" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,37 +3754,29 @@
         <v>233</v>
       </c>
       <c r="F81" t="n">
-        <v>2.1009</v>
+        <v>626</v>
       </c>
       <c r="G81" t="n">
-        <v>232.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>232.6</v>
+        <v>233</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>232.75</v>
-      </c>
-      <c r="N81" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4391,49 +3785,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C82" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E82" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F82" t="n">
-        <v>164.7525</v>
+        <v>2477.7854</v>
       </c>
       <c r="G82" t="n">
-        <v>232.4166666666667</v>
+        <v>100</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="K82" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L82" t="n">
-        <v>232.4</v>
+        <v>233</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>232.65</v>
-      </c>
-      <c r="N82" t="n">
-        <v>232.7333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,49 +3828,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C83" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E83" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F83" t="n">
-        <v>870</v>
-      </c>
-      <c r="G83" t="n">
-        <v>232.4</v>
-      </c>
+        <v>10725.0357</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="K83" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L83" t="n">
-        <v>232.2</v>
+        <v>233</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>232.55</v>
-      </c>
-      <c r="N83" t="n">
-        <v>232.6666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,49 +3869,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C84" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D84" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E84" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F84" t="n">
-        <v>435</v>
-      </c>
-      <c r="G84" t="n">
-        <v>232.4333333333333</v>
-      </c>
+        <v>3159</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L84" t="n">
-        <v>232.1</v>
+        <v>233</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>232.55</v>
-      </c>
-      <c r="N84" t="n">
-        <v>232.6333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,37 +3922,27 @@
         <v>233</v>
       </c>
       <c r="F85" t="n">
-        <v>2.0133</v>
-      </c>
-      <c r="G85" t="n">
-        <v>232.45</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>232.1</v>
+        <v>233</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>232.55</v>
-      </c>
-      <c r="N85" t="n">
-        <v>232.6333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,49 +3951,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C86" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D86" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E86" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F86" t="n">
-        <v>217</v>
-      </c>
-      <c r="G86" t="n">
-        <v>232.4833333333333</v>
-      </c>
+        <v>2546.9318</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="N86" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4646,49 +3992,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C87" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D87" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E87" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F87" t="n">
-        <v>2276.698</v>
+        <v>1985</v>
       </c>
       <c r="G87" t="n">
-        <v>232.4666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>231.9</v>
+        <v>233</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>232.4</v>
-      </c>
-      <c r="N87" t="n">
-        <v>232.5666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4697,49 +4035,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C88" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D88" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E88" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F88" t="n">
-        <v>6075.8111</v>
+        <v>700.1729</v>
       </c>
       <c r="G88" t="n">
-        <v>232.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="K88" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L88" t="n">
-        <v>231.9</v>
+        <v>233</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="N88" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,37 +4090,29 @@
         <v>233</v>
       </c>
       <c r="F89" t="n">
-        <v>246.3047</v>
+        <v>721</v>
       </c>
       <c r="G89" t="n">
-        <v>232.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="K89" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L89" t="n">
-        <v>231.9</v>
+        <v>233</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="N89" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4799,49 +4121,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C90" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D90" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E90" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F90" t="n">
-        <v>699</v>
+        <v>2565.0665</v>
       </c>
       <c r="G90" t="n">
-        <v>232.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="K90" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L90" t="n">
-        <v>231.8</v>
+        <v>233</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>232.2</v>
-      </c>
-      <c r="N90" t="n">
-        <v>232.4333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4850,49 +4164,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C91" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D91" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E91" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F91" t="n">
-        <v>4326.8111</v>
+        <v>9348.3385</v>
       </c>
       <c r="G91" t="n">
-        <v>232.5</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>231.6</v>
+        <v>233</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>232.1</v>
-      </c>
-      <c r="N91" t="n">
-        <v>232.3666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4901,49 +4207,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C92" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D92" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E92" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F92" t="n">
-        <v>552.6535</v>
+        <v>1703</v>
       </c>
       <c r="G92" t="n">
-        <v>232.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>231.6</v>
+        <v>233</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>232</v>
-      </c>
-      <c r="N92" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,50 +4250,42 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C93" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D93" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E93" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F93" t="n">
-        <v>2549</v>
+        <v>836.8572</v>
       </c>
       <c r="G93" t="n">
-        <v>232.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="K93" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L93" t="n">
-        <v>231.6</v>
+        <v>233</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="N93" t="n">
-        <v>232.2333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="94">
@@ -5003,49 +4293,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C94" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D94" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E94" t="n">
         <v>231</v>
       </c>
       <c r="F94" t="n">
-        <v>158</v>
+        <v>23498.6824</v>
       </c>
       <c r="G94" t="n">
-        <v>232.45</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="K94" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L94" t="n">
-        <v>231.5</v>
+        <v>233</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="N94" t="n">
-        <v>232.2</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,49 +4336,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C95" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D95" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E95" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F95" t="n">
-        <v>1614.0617</v>
+        <v>5956</v>
       </c>
       <c r="G95" t="n">
-        <v>232.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="K95" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L95" t="n">
-        <v>231.2</v>
+        <v>233</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>231.65</v>
-      </c>
-      <c r="N95" t="n">
-        <v>232.1</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5105,49 +4379,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C96" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D96" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E96" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F96" t="n">
-        <v>444.7328</v>
+        <v>538.8383</v>
       </c>
       <c r="G96" t="n">
-        <v>232.4166666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>231.1</v>
+        <v>233</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>231.55</v>
-      </c>
-      <c r="N96" t="n">
-        <v>232.0333333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,49 +4422,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C97" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D97" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E97" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F97" t="n">
-        <v>693.25</v>
+        <v>6</v>
       </c>
       <c r="G97" t="n">
-        <v>232.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="K97" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L97" t="n">
-        <v>231.2</v>
+        <v>233</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>231.55</v>
-      </c>
-      <c r="N97" t="n">
-        <v>232</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,49 +4465,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C98" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D98" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E98" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F98" t="n">
-        <v>1168.5215</v>
+        <v>405.8358</v>
       </c>
       <c r="G98" t="n">
-        <v>232.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="K98" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L98" t="n">
-        <v>231.3</v>
+        <v>233</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>231.6</v>
-      </c>
-      <c r="N98" t="n">
-        <v>231.9666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5258,49 +4508,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C99" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D99" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E99" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F99" t="n">
-        <v>1186.4213</v>
+        <v>1099.764</v>
       </c>
       <c r="G99" t="n">
-        <v>232.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>231.1</v>
+        <v>233</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="N99" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5309,49 +4551,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C100" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D100" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E100" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F100" t="n">
-        <v>1598.0798</v>
+        <v>330.5557</v>
       </c>
       <c r="G100" t="n">
-        <v>232.35</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>231.1</v>
+        <v>233</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>231.45</v>
-      </c>
-      <c r="N100" t="n">
-        <v>231.8333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5360,49 +4594,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C101" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D101" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E101" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F101" t="n">
-        <v>4482.2839</v>
+        <v>612.3544000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>232.3</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="K101" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L101" t="n">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="N101" t="n">
-        <v>231.7333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5411,49 +4637,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C102" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D102" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E102" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F102" t="n">
-        <v>14003.7509</v>
+        <v>1378</v>
       </c>
       <c r="G102" t="n">
-        <v>232.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="N102" t="n">
-        <v>231.6666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5462,49 +4680,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C103" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D103" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E103" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F103" t="n">
-        <v>5453.4184</v>
+        <v>767</v>
       </c>
       <c r="G103" t="n">
-        <v>232.2666666666667</v>
+        <v>100</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="N103" t="n">
-        <v>231.6</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5513,49 +4723,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C104" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D104" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E104" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F104" t="n">
-        <v>627.2872</v>
-      </c>
-      <c r="G104" t="n">
-        <v>232.2333333333333</v>
-      </c>
+        <v>167.382</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="K104" t="n">
-        <v>20</v>
-      </c>
-      <c r="L104" t="n">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>231.25</v>
-      </c>
-      <c r="N104" t="n">
-        <v>231.5333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5564,49 +4764,846 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C105" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D105" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E105" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F105" t="n">
-        <v>4532.0203</v>
-      </c>
-      <c r="G105" t="n">
-        <v>232.2</v>
-      </c>
+        <v>16017.206</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>233</v>
+      </c>
+      <c r="K105" t="n">
+        <v>233</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>233</v>
+      </c>
+      <c r="C106" t="n">
+        <v>233</v>
+      </c>
+      <c r="D106" t="n">
+        <v>233</v>
+      </c>
+      <c r="E106" t="n">
+        <v>233</v>
+      </c>
+      <c r="F106" t="n">
+        <v>17.167</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>233</v>
+      </c>
+      <c r="K106" t="n">
+        <v>233</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>232</v>
+      </c>
+      <c r="C107" t="n">
+        <v>232</v>
+      </c>
+      <c r="D107" t="n">
+        <v>232</v>
+      </c>
+      <c r="E107" t="n">
+        <v>232</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6575.5348</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>233</v>
+      </c>
+      <c r="K107" t="n">
+        <v>233</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>231</v>
+      </c>
+      <c r="C108" t="n">
+        <v>231</v>
+      </c>
+      <c r="D108" t="n">
+        <v>231</v>
+      </c>
+      <c r="E108" t="n">
+        <v>231</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1128.7392</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>232</v>
+      </c>
+      <c r="K108" t="n">
+        <v>232</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>232</v>
+      </c>
+      <c r="C109" t="n">
+        <v>233</v>
+      </c>
+      <c r="D109" t="n">
+        <v>233</v>
+      </c>
+      <c r="E109" t="n">
+        <v>232</v>
+      </c>
+      <c r="F109" t="n">
+        <v>500</v>
+      </c>
+      <c r="G109" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>231</v>
+      </c>
+      <c r="K109" t="n">
+        <v>232</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>232</v>
+      </c>
+      <c r="C110" t="n">
+        <v>232</v>
+      </c>
+      <c r="D110" t="n">
+        <v>232</v>
+      </c>
+      <c r="E110" t="n">
+        <v>232</v>
+      </c>
+      <c r="F110" t="n">
+        <v>891.3626</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>233</v>
+      </c>
+      <c r="K110" t="n">
+        <v>232</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>233</v>
+      </c>
+      <c r="C111" t="n">
+        <v>233</v>
+      </c>
+      <c r="D111" t="n">
+        <v>233</v>
+      </c>
+      <c r="E111" t="n">
+        <v>233</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.1009</v>
+      </c>
+      <c r="G111" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>54</v>
-      </c>
-      <c r="K105" t="n">
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>232</v>
+      </c>
+      <c r="K111" t="n">
+        <v>232</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>231</v>
+      </c>
+      <c r="C112" t="n">
+        <v>231</v>
+      </c>
+      <c r="D112" t="n">
+        <v>231</v>
+      </c>
+      <c r="E112" t="n">
+        <v>231</v>
+      </c>
+      <c r="F112" t="n">
+        <v>164.7525</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>233</v>
+      </c>
+      <c r="K112" t="n">
+        <v>232</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>231</v>
+      </c>
+      <c r="C113" t="n">
+        <v>231</v>
+      </c>
+      <c r="D113" t="n">
+        <v>231</v>
+      </c>
+      <c r="E113" t="n">
+        <v>231</v>
+      </c>
+      <c r="F113" t="n">
+        <v>870</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>231</v>
+      </c>
+      <c r="K113" t="n">
+        <v>232</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>232</v>
+      </c>
+      <c r="C114" t="n">
+        <v>232</v>
+      </c>
+      <c r="D114" t="n">
+        <v>232</v>
+      </c>
+      <c r="E114" t="n">
+        <v>232</v>
+      </c>
+      <c r="F114" t="n">
+        <v>435</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-11.11111111111111</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>231</v>
+      </c>
+      <c r="K114" t="n">
+        <v>232</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>233</v>
+      </c>
+      <c r="C115" t="n">
+        <v>233</v>
+      </c>
+      <c r="D115" t="n">
+        <v>233</v>
+      </c>
+      <c r="E115" t="n">
+        <v>233</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.0133</v>
+      </c>
+      <c r="G115" t="n">
         <v>0</v>
       </c>
-      <c r="L105" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="M105" t="n">
-        <v>231.15</v>
-      </c>
-      <c r="N105" t="n">
-        <v>231.4666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>232</v>
+      </c>
+      <c r="K115" t="n">
+        <v>232</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>232</v>
+      </c>
+      <c r="C116" t="n">
+        <v>232</v>
+      </c>
+      <c r="D116" t="n">
+        <v>232</v>
+      </c>
+      <c r="E116" t="n">
+        <v>232</v>
+      </c>
+      <c r="F116" t="n">
+        <v>217</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>233</v>
+      </c>
+      <c r="K116" t="n">
+        <v>232</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>231</v>
+      </c>
+      <c r="C117" t="n">
+        <v>231</v>
+      </c>
+      <c r="D117" t="n">
+        <v>231</v>
+      </c>
+      <c r="E117" t="n">
+        <v>231</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2276.698</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>232</v>
+      </c>
+      <c r="K117" t="n">
+        <v>232</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>231</v>
+      </c>
+      <c r="C118" t="n">
+        <v>231</v>
+      </c>
+      <c r="D118" t="n">
+        <v>231</v>
+      </c>
+      <c r="E118" t="n">
+        <v>231</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6075.8111</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>231</v>
+      </c>
+      <c r="K118" t="n">
+        <v>232</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>233</v>
+      </c>
+      <c r="C119" t="n">
+        <v>233</v>
+      </c>
+      <c r="D119" t="n">
+        <v>233</v>
+      </c>
+      <c r="E119" t="n">
+        <v>233</v>
+      </c>
+      <c r="F119" t="n">
+        <v>246.3047</v>
+      </c>
+      <c r="G119" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>231</v>
+      </c>
+      <c r="K119" t="n">
+        <v>232</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>231</v>
+      </c>
+      <c r="C120" t="n">
+        <v>231</v>
+      </c>
+      <c r="D120" t="n">
+        <v>231</v>
+      </c>
+      <c r="E120" t="n">
+        <v>231</v>
+      </c>
+      <c r="F120" t="n">
+        <v>699</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>233</v>
+      </c>
+      <c r="K120" t="n">
+        <v>232</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>0.9906896551724138</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>231</v>
+      </c>
+      <c r="C121" t="n">
+        <v>231</v>
+      </c>
+      <c r="D121" t="n">
+        <v>231</v>
+      </c>
+      <c r="E121" t="n">
+        <v>231</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4326.8111</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>231</v>
+      </c>
+      <c r="K121" t="n">
+        <v>231</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>231</v>
+      </c>
+      <c r="C122" t="n">
+        <v>231</v>
+      </c>
+      <c r="D122" t="n">
+        <v>231</v>
+      </c>
+      <c r="E122" t="n">
+        <v>231</v>
+      </c>
+      <c r="F122" t="n">
+        <v>552.6535</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>231</v>
+      </c>
+      <c r="K122" t="n">
+        <v>231</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>231</v>
+      </c>
+      <c r="C123" t="n">
+        <v>231</v>
+      </c>
+      <c r="D123" t="n">
+        <v>231</v>
+      </c>
+      <c r="E123" t="n">
+        <v>231</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2549</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>231</v>
+      </c>
+      <c r="K123" t="n">
+        <v>231</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>231</v>
+      </c>
+      <c r="C124" t="n">
+        <v>231</v>
+      </c>
+      <c r="D124" t="n">
+        <v>231</v>
+      </c>
+      <c r="E124" t="n">
+        <v>231</v>
+      </c>
+      <c r="F124" t="n">
+        <v>158</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>231</v>
+      </c>
+      <c r="K124" t="n">
+        <v>231</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest KNC.xlsx
+++ b/BackTest/2019-10-15 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -425,6 +425,11 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
         </is>
       </c>
     </row>
@@ -448,13 +453,13 @@
         <v>2.1489</v>
       </c>
       <c r="G2" t="n">
-        <v>11.11111111111111</v>
+        <v>-29060.4532</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,24 +489,21 @@
         <v>128.279</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-29188.73219999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>231</v>
-      </c>
-      <c r="K3" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,28 +525,21 @@
         <v>104.2884</v>
       </c>
       <c r="G4" t="n">
-        <v>-25</v>
+        <v>-29188.73219999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>230</v>
-      </c>
-      <c r="K4" t="n">
-        <v>231</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,28 +561,21 @@
         <v>3.1119</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-29188.73219999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>230</v>
-      </c>
-      <c r="K5" t="n">
-        <v>231</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,24 +597,21 @@
         <v>500</v>
       </c>
       <c r="G6" t="n">
-        <v>-20</v>
+        <v>-29188.73219999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>230</v>
-      </c>
-      <c r="K6" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -647,28 +633,21 @@
         <v>351.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-29188.73219999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>230</v>
-      </c>
-      <c r="K7" t="n">
-        <v>230</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,28 +669,21 @@
         <v>2.1116</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-29186.62059999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>230</v>
-      </c>
-      <c r="K8" t="n">
-        <v>230</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -733,24 +705,21 @@
         <v>1.0712</v>
       </c>
       <c r="G9" t="n">
-        <v>33.33333333333333</v>
+        <v>-29186.62059999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>231</v>
-      </c>
-      <c r="K9" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -772,28 +741,21 @@
         <v>300</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-29486.62059999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>231</v>
-      </c>
-      <c r="K10" t="n">
-        <v>231</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -815,28 +777,21 @@
         <v>5.0999</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-29481.52069999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>230</v>
-      </c>
-      <c r="K11" t="n">
-        <v>231</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,24 +813,21 @@
         <v>166.4487</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-29647.96939999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>231</v>
-      </c>
-      <c r="K12" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -897,28 +849,21 @@
         <v>134</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-29647.96939999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>230</v>
-      </c>
-      <c r="K13" t="n">
-        <v>231</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,28 +885,21 @@
         <v>1285.8509</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>-28362.11849999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>230</v>
-      </c>
-      <c r="K14" t="n">
-        <v>231</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -983,24 +921,21 @@
         <v>7050</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-35412.1185</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>231</v>
-      </c>
-      <c r="K15" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1022,20 +957,18 @@
         <v>264.1527</v>
       </c>
       <c r="G16" t="n">
-        <v>25</v>
+        <v>-35147.9658</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>230</v>
       </c>
-      <c r="K16" t="n">
-        <v>231</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1044,6 +977,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1065,20 +999,16 @@
         <v>2.1726</v>
       </c>
       <c r="G17" t="n">
-        <v>14.28571428571428</v>
+        <v>-35147.9658</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>232</v>
-      </c>
-      <c r="K17" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1087,6 +1017,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1108,20 +1039,16 @@
         <v>450</v>
       </c>
       <c r="G18" t="n">
-        <v>14.28571428571428</v>
+        <v>-35147.9658</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>232</v>
-      </c>
-      <c r="K18" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1130,6 +1057,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1151,20 +1079,16 @@
         <v>3.1887</v>
       </c>
       <c r="G19" t="n">
-        <v>33.33333333333333</v>
+        <v>-35147.9658</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>232</v>
-      </c>
-      <c r="K19" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1173,6 +1097,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1194,20 +1119,16 @@
         <v>25.448</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>232</v>
-      </c>
-      <c r="K20" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1216,6 +1137,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1237,20 +1159,16 @@
         <v>1791.141</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>231</v>
-      </c>
-      <c r="K21" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1259,6 +1177,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1280,20 +1199,16 @@
         <v>40.8633</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>231</v>
-      </c>
-      <c r="K22" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1302,6 +1217,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1323,20 +1239,16 @@
         <v>317</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>231</v>
-      </c>
-      <c r="K23" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1345,6 +1257,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1366,20 +1279,16 @@
         <v>110.6655796536797</v>
       </c>
       <c r="G24" t="n">
-        <v>33.33333333333333</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>231</v>
-      </c>
-      <c r="K24" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1388,6 +1297,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1409,20 +1319,18 @@
         <v>178.7088</v>
       </c>
       <c r="G25" t="n">
-        <v>-100</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>231</v>
       </c>
-      <c r="K25" t="n">
-        <v>231</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1431,6 +1339,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1452,20 +1361,16 @@
         <v>1783.7009</v>
       </c>
       <c r="G26" t="n">
-        <v>-100</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>231</v>
-      </c>
-      <c r="K26" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1474,6 +1379,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1495,28 +1401,27 @@
         <v>1029.1125</v>
       </c>
       <c r="G27" t="n">
-        <v>-100</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>231</v>
       </c>
-      <c r="K27" t="n">
-        <v>231</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>0.995</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1538,24 +1443,27 @@
         <v>3486.4665</v>
       </c>
       <c r="G28" t="n">
-        <v>-100</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>231</v>
       </c>
-      <c r="K28" t="n">
-        <v>231</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1576,27 +1484,26 @@
       <c r="F29" t="n">
         <v>5104.4179</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>-35173.41379999999</v>
+      </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>231</v>
-      </c>
-      <c r="K29" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1617,27 +1524,26 @@
       <c r="F30" t="n">
         <v>2.1109</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>-35173.41379999999</v>
+      </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>231</v>
-      </c>
-      <c r="K30" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1658,23 +1564,26 @@
       <c r="F31" t="n">
         <v>300</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>-35173.41379999999</v>
+      </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>231</v>
-      </c>
-      <c r="K31" t="n">
-        <v>231</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1695,27 +1604,26 @@
       <c r="F32" t="n">
         <v>563.801</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>-35173.41379999999</v>
+      </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>231</v>
-      </c>
-      <c r="K32" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1736,27 +1644,26 @@
       <c r="F33" t="n">
         <v>300</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>-35173.41379999999</v>
+      </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>231</v>
-      </c>
-      <c r="K33" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1777,23 +1684,26 @@
       <c r="F34" t="n">
         <v>2220.826</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>-35173.41379999999</v>
+      </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>231</v>
-      </c>
-      <c r="K34" t="n">
-        <v>231</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1814,27 +1724,26 @@
       <c r="F35" t="n">
         <v>525</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>-35173.41379999999</v>
+      </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>231</v>
-      </c>
-      <c r="K35" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1855,27 +1764,26 @@
       <c r="F36" t="n">
         <v>2.0998</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>-35173.41379999999</v>
+      </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>231</v>
-      </c>
-      <c r="K36" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1896,23 +1804,26 @@
       <c r="F37" t="n">
         <v>10</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>-35173.41379999999</v>
+      </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>231</v>
-      </c>
-      <c r="K37" t="n">
-        <v>231</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1933,27 +1844,26 @@
       <c r="F38" t="n">
         <v>56.03752034632035</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>-35173.41379999999</v>
+      </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>231</v>
-      </c>
-      <c r="K38" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1975,28 +1885,27 @@
         <v>200</v>
       </c>
       <c r="G39" t="n">
-        <v>100</v>
+        <v>-34973.41379999999</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>231</v>
       </c>
-      <c r="K39" t="n">
-        <v>231</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2018,24 +1927,27 @@
         <v>2.0198</v>
       </c>
       <c r="G40" t="n">
-        <v>100</v>
+        <v>-34973.41379999999</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>232</v>
       </c>
-      <c r="K40" t="n">
-        <v>232</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2057,28 +1969,27 @@
         <v>641</v>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>-34973.41379999999</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>232</v>
       </c>
-      <c r="K41" t="n">
-        <v>232</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2100,28 +2011,27 @@
         <v>3631.2489</v>
       </c>
       <c r="G42" t="n">
-        <v>100</v>
+        <v>-34973.41379999999</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>232</v>
       </c>
-      <c r="K42" t="n">
-        <v>232</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2143,24 +2053,25 @@
         <v>2387.4168</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-37360.83059999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>232</v>
-      </c>
-      <c r="K43" t="n">
-        <v>232</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2182,28 +2093,25 @@
         <v>698.623</v>
       </c>
       <c r="G44" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38059.45359999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>231</v>
-      </c>
-      <c r="K44" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2225,20 +2133,18 @@
         <v>9086.679400000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38059.45359999999</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>230</v>
       </c>
-      <c r="K45" t="n">
-        <v>232</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2247,6 +2153,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2268,20 +2175,18 @@
         <v>15</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-38044.45359999999</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>230</v>
       </c>
-      <c r="K46" t="n">
-        <v>232</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2290,6 +2195,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2311,20 +2217,18 @@
         <v>2888.4447</v>
       </c>
       <c r="G47" t="n">
-        <v>-20</v>
+        <v>-40932.89829999999</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>231</v>
       </c>
-      <c r="K47" t="n">
-        <v>232</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2333,6 +2237,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2354,20 +2259,18 @@
         <v>3.1182</v>
       </c>
       <c r="G48" t="n">
-        <v>-20</v>
+        <v>-40929.7801</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>230</v>
       </c>
-      <c r="K48" t="n">
-        <v>232</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2376,6 +2279,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2397,20 +2301,18 @@
         <v>300</v>
       </c>
       <c r="G49" t="n">
-        <v>-20</v>
+        <v>-40929.7801</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>231</v>
       </c>
-      <c r="K49" t="n">
-        <v>232</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2419,6 +2321,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2440,20 +2343,18 @@
         <v>253</v>
       </c>
       <c r="G50" t="n">
-        <v>-20</v>
+        <v>-40929.7801</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>231</v>
       </c>
-      <c r="K50" t="n">
-        <v>232</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2462,6 +2363,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2483,20 +2385,16 @@
         <v>1.8965</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>-40927.88359999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>231</v>
-      </c>
-      <c r="K51" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2505,6 +2403,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2526,20 +2425,16 @@
         <v>39.6293</v>
       </c>
       <c r="G52" t="n">
-        <v>20</v>
+        <v>-40927.88359999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>232</v>
-      </c>
-      <c r="K52" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2548,6 +2443,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2569,27 +2465,24 @@
         <v>49</v>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>-40927.88359999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="J53" t="n">
-        <v>232</v>
-      </c>
-      <c r="K53" t="n">
-        <v>232</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>1.004347826086956</v>
       </c>
     </row>
     <row r="54">
@@ -2612,28 +2505,21 @@
         <v>449.325</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>-41377.20859999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>232</v>
-      </c>
-      <c r="K54" t="n">
-        <v>232</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2655,28 +2541,21 @@
         <v>2.0998</v>
       </c>
       <c r="G55" t="n">
-        <v>14.28571428571428</v>
+        <v>-41375.10879999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>230</v>
-      </c>
-      <c r="K55" t="n">
-        <v>232</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>0.995</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2698,28 +2577,21 @@
         <v>2858.0508</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>-44233.15959999998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>232</v>
-      </c>
-      <c r="K56" t="n">
-        <v>232</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2741,24 +2613,21 @@
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>11.11111111111111</v>
+        <v>-44231.15959999998</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>230</v>
-      </c>
-      <c r="K57" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2780,28 +2649,21 @@
         <v>663.1648</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>-44894.32439999998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>232</v>
-      </c>
-      <c r="K58" t="n">
-        <v>230</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2823,28 +2685,21 @@
         <v>2.8706</v>
       </c>
       <c r="G59" t="n">
-        <v>9.090909090909092</v>
+        <v>-44891.45379999998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>231</v>
-      </c>
-      <c r="K59" t="n">
-        <v>230</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2866,24 +2721,21 @@
         <v>13730.1802</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.090909090909092</v>
+        <v>-58621.63399999998</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>232</v>
-      </c>
-      <c r="K60" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2905,28 +2757,25 @@
         <v>500</v>
       </c>
       <c r="G61" t="n">
-        <v>-16.66666666666666</v>
+        <v>-59121.63399999998</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>231</v>
       </c>
       <c r="K61" t="n">
-        <v>232</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2948,19 +2797,17 @@
         <v>195</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>-58926.63399999998</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2970,6 +2817,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2991,19 +2839,17 @@
         <v>2060.6714</v>
       </c>
       <c r="G63" t="n">
-        <v>16.66666666666666</v>
+        <v>-58926.63399999998</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3013,6 +2859,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3034,19 +2881,17 @@
         <v>1985</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>-58926.63399999998</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3056,6 +2901,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3077,19 +2923,17 @@
         <v>3548.6547</v>
       </c>
       <c r="G65" t="n">
-        <v>25</v>
+        <v>-58926.63399999998</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3099,6 +2943,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3120,19 +2965,17 @@
         <v>6873.5043</v>
       </c>
       <c r="G66" t="n">
-        <v>-14.28571428571428</v>
+        <v>-65800.13829999998</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3142,6 +2985,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3163,19 +3007,17 @@
         <v>452.6474</v>
       </c>
       <c r="G67" t="n">
-        <v>14.28571428571428</v>
+        <v>-65347.49089999998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3185,6 +3027,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3206,19 +3049,17 @@
         <v>443.3526</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>-65347.49089999998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3228,6 +3069,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3249,19 +3091,17 @@
         <v>2.0998</v>
       </c>
       <c r="G69" t="n">
-        <v>33.33333333333333</v>
+        <v>-65345.39109999997</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3271,6 +3111,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3292,19 +3133,17 @@
         <v>630.901</v>
       </c>
       <c r="G70" t="n">
-        <v>60</v>
+        <v>-65345.39109999997</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="J70" t="n">
-        <v>233</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3314,6 +3153,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3335,19 +3175,17 @@
         <v>487.7296</v>
       </c>
       <c r="G71" t="n">
-        <v>33.33333333333333</v>
+        <v>-65345.39109999997</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="J71" t="n">
-        <v>233</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3357,6 +3195,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3378,19 +3217,17 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>33.33333333333333</v>
+        <v>-65345.39109999997</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
-      <c r="J72" t="n">
-        <v>233</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3400,6 +3237,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3421,19 +3259,17 @@
         <v>178.1433</v>
       </c>
       <c r="G73" t="n">
-        <v>-20</v>
+        <v>-65523.53439999997</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="J73" t="n">
-        <v>233</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3443,6 +3279,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3464,19 +3301,17 @@
         <v>2.1076</v>
       </c>
       <c r="G74" t="n">
-        <v>14.28571428571428</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
-      <c r="J74" t="n">
-        <v>231</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3484,7 +3319,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>0.9993103448275863</v>
+        <v>1.003658008658009</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.008695652173913</v>
       </c>
     </row>
     <row r="75">
@@ -3507,28 +3345,21 @@
         <v>17</v>
       </c>
       <c r="G75" t="n">
-        <v>33.33333333333333</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
-      <c r="J75" t="n">
-        <v>233</v>
-      </c>
-      <c r="K75" t="n">
-        <v>233</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3550,24 +3381,21 @@
         <v>253.295</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="J76" t="n">
-        <v>233</v>
-      </c>
-      <c r="K76" t="n">
-        <v>233</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3589,28 +3417,21 @@
         <v>4238</v>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="J77" t="n">
-        <v>233</v>
-      </c>
-      <c r="K77" t="n">
-        <v>233</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3632,28 +3453,21 @@
         <v>854.4129</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
-      <c r="J78" t="n">
-        <v>233</v>
-      </c>
-      <c r="K78" t="n">
-        <v>233</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3675,24 +3489,21 @@
         <v>992.8022999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="J79" t="n">
-        <v>233</v>
-      </c>
-      <c r="K79" t="n">
-        <v>233</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3714,28 +3525,21 @@
         <v>714.1097</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
-      <c r="J80" t="n">
-        <v>233</v>
-      </c>
-      <c r="K80" t="n">
-        <v>233</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3757,28 +3561,21 @@
         <v>626</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="J81" t="n">
-        <v>233</v>
-      </c>
-      <c r="K81" t="n">
-        <v>233</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3800,28 +3597,21 @@
         <v>2477.7854</v>
       </c>
       <c r="G82" t="n">
-        <v>100</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
-      <c r="J82" t="n">
-        <v>233</v>
-      </c>
-      <c r="K82" t="n">
-        <v>233</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3842,27 +3632,22 @@
       <c r="F83" t="n">
         <v>10725.0357</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>-65521.42679999997</v>
+      </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
-      <c r="J83" t="n">
-        <v>233</v>
-      </c>
-      <c r="K83" t="n">
-        <v>233</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3883,27 +3668,22 @@
       <c r="F84" t="n">
         <v>3159</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>-65521.42679999997</v>
+      </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="J84" t="n">
-        <v>233</v>
-      </c>
-      <c r="K84" t="n">
-        <v>233</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3924,27 +3704,22 @@
       <c r="F85" t="n">
         <v>238</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>-65521.42679999997</v>
+      </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
-      <c r="J85" t="n">
-        <v>233</v>
-      </c>
-      <c r="K85" t="n">
-        <v>233</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3965,27 +3740,22 @@
       <c r="F86" t="n">
         <v>2546.9318</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>-65521.42679999997</v>
+      </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="J86" t="n">
-        <v>233</v>
-      </c>
-      <c r="K86" t="n">
-        <v>233</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4007,28 +3777,21 @@
         <v>1985</v>
       </c>
       <c r="G87" t="n">
-        <v>-100</v>
+        <v>-67506.42679999997</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="J87" t="n">
-        <v>233</v>
-      </c>
-      <c r="K87" t="n">
-        <v>233</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4050,28 +3813,21 @@
         <v>700.1729</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
-      <c r="J88" t="n">
-        <v>232</v>
-      </c>
-      <c r="K88" t="n">
-        <v>233</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4093,28 +3849,21 @@
         <v>721</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
-      <c r="J89" t="n">
-        <v>233</v>
-      </c>
-      <c r="K89" t="n">
-        <v>233</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4136,28 +3885,21 @@
         <v>2565.0665</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
-      <c r="J90" t="n">
-        <v>233</v>
-      </c>
-      <c r="K90" t="n">
-        <v>233</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4179,28 +3921,21 @@
         <v>9348.3385</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="J91" t="n">
-        <v>233</v>
-      </c>
-      <c r="K91" t="n">
-        <v>233</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4222,28 +3957,21 @@
         <v>1703</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="J92" t="n">
-        <v>233</v>
-      </c>
-      <c r="K92" t="n">
-        <v>233</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4265,28 +3993,21 @@
         <v>836.8572</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="J93" t="n">
-        <v>233</v>
-      </c>
-      <c r="K93" t="n">
-        <v>233</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>0.995</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4308,28 +4029,21 @@
         <v>23498.6824</v>
       </c>
       <c r="G94" t="n">
-        <v>-33.33333333333333</v>
+        <v>-90304.93629999997</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="J94" t="n">
-        <v>233</v>
-      </c>
-      <c r="K94" t="n">
-        <v>233</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4351,28 +4065,21 @@
         <v>5956</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>-84348.93629999997</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="J95" t="n">
-        <v>232</v>
-      </c>
-      <c r="K95" t="n">
-        <v>233</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4394,28 +4101,21 @@
         <v>538.8383</v>
       </c>
       <c r="G96" t="n">
-        <v>33.33333333333333</v>
+        <v>-84348.93629999997</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="J96" t="n">
-        <v>233</v>
-      </c>
-      <c r="K96" t="n">
-        <v>233</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4437,28 +4137,21 @@
         <v>6</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>-84348.93629999997</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
-      <c r="J97" t="n">
-        <v>233</v>
-      </c>
-      <c r="K97" t="n">
-        <v>233</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4480,28 +4173,21 @@
         <v>405.8358</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>-84348.93629999997</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="J98" t="n">
-        <v>233</v>
-      </c>
-      <c r="K98" t="n">
-        <v>233</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4523,28 +4209,21 @@
         <v>1099.764</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>-84348.93629999997</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
-      <c r="J99" t="n">
-        <v>233</v>
-      </c>
-      <c r="K99" t="n">
-        <v>233</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4566,28 +4245,21 @@
         <v>330.5557</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>-84348.93629999997</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
-      <c r="J100" t="n">
-        <v>233</v>
-      </c>
-      <c r="K100" t="n">
-        <v>233</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4609,28 +4281,21 @@
         <v>612.3544000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>-84348.93629999997</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
-      <c r="J101" t="n">
-        <v>233</v>
-      </c>
-      <c r="K101" t="n">
-        <v>233</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4652,28 +4317,21 @@
         <v>1378</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>-84348.93629999997</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
-      <c r="J102" t="n">
-        <v>233</v>
-      </c>
-      <c r="K102" t="n">
-        <v>233</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4695,28 +4353,21 @@
         <v>767</v>
       </c>
       <c r="G103" t="n">
-        <v>100</v>
+        <v>-84348.93629999997</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
-      <c r="J103" t="n">
-        <v>233</v>
-      </c>
-      <c r="K103" t="n">
-        <v>233</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4737,27 +4388,22 @@
       <c r="F104" t="n">
         <v>167.382</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>-84348.93629999997</v>
+      </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
-      <c r="J104" t="n">
-        <v>233</v>
-      </c>
-      <c r="K104" t="n">
-        <v>233</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4778,27 +4424,22 @@
       <c r="F105" t="n">
         <v>16017.206</v>
       </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>-84348.93629999997</v>
+      </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
-      <c r="J105" t="n">
-        <v>233</v>
-      </c>
-      <c r="K105" t="n">
-        <v>233</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>0.995</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4819,27 +4460,22 @@
       <c r="F106" t="n">
         <v>17.167</v>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>-84348.93629999997</v>
+      </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
-      <c r="J106" t="n">
-        <v>233</v>
-      </c>
-      <c r="K106" t="n">
-        <v>233</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4861,28 +4497,21 @@
         <v>6575.5348</v>
       </c>
       <c r="G107" t="n">
-        <v>-100</v>
+        <v>-90924.47109999997</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
-      <c r="J107" t="n">
-        <v>233</v>
-      </c>
-      <c r="K107" t="n">
-        <v>233</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4904,24 +4533,21 @@
         <v>1128.7392</v>
       </c>
       <c r="G108" t="n">
-        <v>-100</v>
+        <v>-92053.21029999996</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>232</v>
-      </c>
-      <c r="K108" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4943,28 +4569,21 @@
         <v>500</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>-91553.21029999996</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>231</v>
-      </c>
-      <c r="K109" t="n">
-        <v>232</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4986,28 +4605,21 @@
         <v>891.3626</v>
       </c>
       <c r="G110" t="n">
-        <v>-20</v>
+        <v>-92444.57289999996</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>233</v>
-      </c>
-      <c r="K110" t="n">
-        <v>232</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5029,28 +4641,21 @@
         <v>2.1009</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>-92442.47199999995</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>232</v>
-      </c>
-      <c r="K111" t="n">
-        <v>232</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5072,28 +4677,21 @@
         <v>164.7525</v>
       </c>
       <c r="G112" t="n">
-        <v>-25</v>
+        <v>-92607.22449999995</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>233</v>
-      </c>
-      <c r="K112" t="n">
-        <v>232</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5115,28 +4713,21 @@
         <v>870</v>
       </c>
       <c r="G113" t="n">
-        <v>-25</v>
+        <v>-92607.22449999995</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>231</v>
-      </c>
-      <c r="K113" t="n">
-        <v>232</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5158,28 +4749,21 @@
         <v>435</v>
       </c>
       <c r="G114" t="n">
-        <v>-11.11111111111111</v>
+        <v>-92172.22449999995</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>231</v>
-      </c>
-      <c r="K114" t="n">
-        <v>232</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5201,28 +4785,21 @@
         <v>2.0133</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>-92170.21119999995</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>232</v>
-      </c>
-      <c r="K115" t="n">
-        <v>232</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5244,28 +4821,21 @@
         <v>217</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>-92387.21119999995</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>233</v>
-      </c>
-      <c r="K116" t="n">
-        <v>232</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5287,28 +4857,21 @@
         <v>2276.698</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>-94663.90919999995</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>232</v>
-      </c>
-      <c r="K117" t="n">
-        <v>232</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5330,28 +4893,21 @@
         <v>6075.8111</v>
       </c>
       <c r="G118" t="n">
-        <v>-25</v>
+        <v>-94663.90919999995</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>231</v>
-      </c>
-      <c r="K118" t="n">
-        <v>232</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5373,28 +4929,21 @@
         <v>246.3047</v>
       </c>
       <c r="G119" t="n">
-        <v>11.11111111111111</v>
+        <v>-94417.60449999996</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>231</v>
-      </c>
-      <c r="K119" t="n">
-        <v>232</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5416,28 +4965,21 @@
         <v>699</v>
       </c>
       <c r="G120" t="n">
-        <v>-20</v>
+        <v>-95116.60449999996</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>233</v>
-      </c>
-      <c r="K120" t="n">
-        <v>232</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>0.9906896551724138</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5459,28 +5001,21 @@
         <v>4326.8111</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>-95116.60449999996</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>231</v>
-      </c>
-      <c r="K121" t="n">
-        <v>231</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5502,24 +5037,21 @@
         <v>552.6535</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>-95116.60449999996</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>231</v>
-      </c>
-      <c r="K122" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5541,28 +5073,21 @@
         <v>2549</v>
       </c>
       <c r="G123" t="n">
-        <v>-14.28571428571428</v>
+        <v>-95116.60449999996</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>231</v>
-      </c>
-      <c r="K123" t="n">
-        <v>231</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5584,28 +5109,21 @@
         <v>158</v>
       </c>
       <c r="G124" t="n">
-        <v>-33.33333333333333</v>
+        <v>-95116.60449999996</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>231</v>
-      </c>
-      <c r="K124" t="n">
-        <v>231</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-15 BackTest KNC.xlsx
+++ b/BackTest/2019-10-15 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C2" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D2" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E2" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1489</v>
+        <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>-29060.4532</v>
+        <v>-11727.1326</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C3" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D3" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E3" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F3" t="n">
-        <v>128.279</v>
+        <v>599.9998000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-29188.73219999999</v>
+        <v>-11727.1326</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C4" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D4" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E4" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F4" t="n">
-        <v>104.2884</v>
+        <v>299.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>-29188.73219999999</v>
+        <v>-11727.1326</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C5" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D5" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E5" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F5" t="n">
-        <v>3.1119</v>
+        <v>583</v>
       </c>
       <c r="G5" t="n">
-        <v>-29188.73219999999</v>
+        <v>-11727.1326</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C6" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D6" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E6" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>386.283</v>
       </c>
       <c r="G6" t="n">
-        <v>-29188.73219999999</v>
+        <v>-12113.4156</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" t="n">
-        <v>351.8</v>
+        <v>2.0998</v>
       </c>
       <c r="G7" t="n">
-        <v>-29188.73219999999</v>
+        <v>-12111.3158</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C8" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D8" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E8" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F8" t="n">
-        <v>2.1116</v>
+        <v>383.446</v>
       </c>
       <c r="G8" t="n">
-        <v>-29186.62059999999</v>
+        <v>-12494.7618</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C9" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D9" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E9" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0712</v>
+        <v>78.31619999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>-29186.62059999999</v>
+        <v>-12494.7618</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D10" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E10" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F10" t="n">
-        <v>300</v>
+        <v>17.0281</v>
       </c>
       <c r="G10" t="n">
-        <v>-29486.62059999999</v>
+        <v>-12511.7899</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C11" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D11" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E11" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F11" t="n">
-        <v>5.0999</v>
+        <v>300</v>
       </c>
       <c r="G11" t="n">
-        <v>-29481.52069999999</v>
+        <v>-12211.7899</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C12" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E12" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F12" t="n">
-        <v>166.4487</v>
+        <v>200</v>
       </c>
       <c r="G12" t="n">
-        <v>-29647.96939999999</v>
+        <v>-12211.7899</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C13" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D13" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E13" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F13" t="n">
-        <v>134</v>
+        <v>2780.1152</v>
       </c>
       <c r="G13" t="n">
-        <v>-29647.96939999999</v>
+        <v>-14991.9051</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,31 +870,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C14" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D14" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E14" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F14" t="n">
-        <v>1285.8509</v>
+        <v>300</v>
       </c>
       <c r="G14" t="n">
-        <v>-28362.11849999999</v>
+        <v>-14691.9051</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>227</v>
+      </c>
+      <c r="K14" t="n">
+        <v>227</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -906,22 +910,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C15" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F15" t="n">
-        <v>7050</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>-35412.1185</v>
+        <v>-14491.9051</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +934,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>227</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,33 +952,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C16" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D16" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E16" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F16" t="n">
-        <v>264.1527</v>
+        <v>12000</v>
       </c>
       <c r="G16" t="n">
-        <v>-35147.9658</v>
+        <v>-26491.9051</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>230</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>227</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -984,22 +994,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C17" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D17" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E17" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F17" t="n">
-        <v>2.1726</v>
+        <v>38.31</v>
       </c>
       <c r="G17" t="n">
-        <v>-35147.9658</v>
+        <v>-26491.9051</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1008,7 +1018,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>227</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1024,22 +1036,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C18" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D18" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E18" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F18" t="n">
-        <v>450</v>
+        <v>227.8341</v>
       </c>
       <c r="G18" t="n">
-        <v>-35147.9658</v>
+        <v>-26264.071</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1048,7 +1060,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>227</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1064,22 +1078,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C19" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D19" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E19" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F19" t="n">
-        <v>3.1887</v>
+        <v>2185.5531</v>
       </c>
       <c r="G19" t="n">
-        <v>-35147.9658</v>
+        <v>-28449.6241</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1088,7 +1102,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>227</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1104,22 +1120,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C20" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D20" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E20" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F20" t="n">
-        <v>25.448</v>
+        <v>102.4049</v>
       </c>
       <c r="G20" t="n">
-        <v>-35173.41379999999</v>
+        <v>-28347.2192</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1128,7 +1144,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>227</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1144,22 +1162,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F21" t="n">
-        <v>1791.141</v>
+        <v>2.1908</v>
       </c>
       <c r="G21" t="n">
-        <v>-35173.41379999999</v>
+        <v>-28345.0284</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1168,7 +1186,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>227</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1184,22 +1204,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F22" t="n">
-        <v>40.8633</v>
+        <v>366.297</v>
       </c>
       <c r="G22" t="n">
-        <v>-35173.41379999999</v>
+        <v>-28345.0284</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1208,7 +1228,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>227</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1224,22 +1246,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D23" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" t="n">
-        <v>317</v>
+        <v>2521.5524</v>
       </c>
       <c r="G23" t="n">
-        <v>-35173.41379999999</v>
+        <v>-28345.0284</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1248,7 +1270,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>227</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D24" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E24" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F24" t="n">
-        <v>110.6655796536797</v>
+        <v>2.1067</v>
       </c>
       <c r="G24" t="n">
-        <v>-35173.41379999999</v>
+        <v>-28342.9217</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1288,7 +1312,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>227</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1304,33 +1330,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F25" t="n">
-        <v>178.7088</v>
+        <v>626.2157999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-35173.41379999999</v>
+        <v>-28969.1375</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>231</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>227</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1346,22 +1372,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" t="n">
         <v>231</v>
       </c>
       <c r="D26" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E26" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F26" t="n">
-        <v>1783.7009</v>
+        <v>775.1921</v>
       </c>
       <c r="G26" t="n">
-        <v>-35173.41379999999</v>
+        <v>-28193.9454</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1370,7 +1396,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>227</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1389,30 +1417,30 @@
         <v>230</v>
       </c>
       <c r="C27" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D27" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E27" t="n">
         <v>230</v>
       </c>
       <c r="F27" t="n">
-        <v>1029.1125</v>
+        <v>804.9891</v>
       </c>
       <c r="G27" t="n">
-        <v>-35173.41379999999</v>
+        <v>-28998.9345</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>231</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>227</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1440,21 +1468,21 @@
         <v>231</v>
       </c>
       <c r="F28" t="n">
-        <v>3486.4665</v>
+        <v>1.1403</v>
       </c>
       <c r="G28" t="n">
-        <v>-35173.41379999999</v>
+        <v>-28997.7942</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>231</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>227</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1470,22 +1498,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C29" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E29" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" t="n">
-        <v>5104.4179</v>
+        <v>64.8079</v>
       </c>
       <c r="G29" t="n">
-        <v>-35173.41379999999</v>
+        <v>-29062.6021</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1494,7 +1522,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>227</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1510,22 +1540,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C30" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D30" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E30" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F30" t="n">
-        <v>2.1109</v>
+        <v>1246.5202</v>
       </c>
       <c r="G30" t="n">
-        <v>-35173.41379999999</v>
+        <v>-29062.6021</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1534,7 +1564,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>227</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1562,10 +1594,10 @@
         <v>231</v>
       </c>
       <c r="F31" t="n">
-        <v>300</v>
+        <v>2.1489</v>
       </c>
       <c r="G31" t="n">
-        <v>-35173.41379999999</v>
+        <v>-29060.4532</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1574,7 +1606,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>227</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1590,22 +1624,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D32" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E32" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" t="n">
-        <v>563.801</v>
+        <v>128.279</v>
       </c>
       <c r="G32" t="n">
-        <v>-35173.41379999999</v>
+        <v>-29188.73219999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1614,7 +1648,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>227</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1630,22 +1666,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D33" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E33" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F33" t="n">
-        <v>300</v>
+        <v>104.2884</v>
       </c>
       <c r="G33" t="n">
-        <v>-35173.41379999999</v>
+        <v>-29188.73219999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1654,7 +1690,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>227</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1670,22 +1708,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E34" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" t="n">
-        <v>2220.826</v>
+        <v>3.1119</v>
       </c>
       <c r="G34" t="n">
-        <v>-35173.41379999999</v>
+        <v>-29188.73219999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1694,7 +1732,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>227</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1710,22 +1750,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C35" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D35" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E35" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F35" t="n">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="G35" t="n">
-        <v>-35173.41379999999</v>
+        <v>-29188.73219999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1734,7 +1774,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>227</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1750,22 +1792,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D36" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E36" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F36" t="n">
-        <v>2.0998</v>
+        <v>351.8</v>
       </c>
       <c r="G36" t="n">
-        <v>-35173.41379999999</v>
+        <v>-29188.73219999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1774,7 +1816,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>227</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1802,10 +1846,10 @@
         <v>231</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>2.1116</v>
       </c>
       <c r="G37" t="n">
-        <v>-35173.41379999999</v>
+        <v>-29186.62059999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1814,7 +1858,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>227</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1842,10 +1888,10 @@
         <v>231</v>
       </c>
       <c r="F38" t="n">
-        <v>56.03752034632035</v>
+        <v>1.0712</v>
       </c>
       <c r="G38" t="n">
-        <v>-35173.41379999999</v>
+        <v>-29186.62059999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1854,7 +1900,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>227</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1870,33 +1918,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C39" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D39" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E39" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G39" t="n">
-        <v>-34973.41379999999</v>
+        <v>-29486.62059999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>231</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>227</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1912,33 +1960,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D40" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E40" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0198</v>
+        <v>5.0999</v>
       </c>
       <c r="G40" t="n">
-        <v>-34973.41379999999</v>
+        <v>-29481.52069999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>232</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>227</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,33 +2002,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C41" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D41" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E41" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F41" t="n">
-        <v>641</v>
+        <v>166.4487</v>
       </c>
       <c r="G41" t="n">
-        <v>-34973.41379999999</v>
+        <v>-29647.96939999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>232</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>227</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1996,33 +2044,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C42" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E42" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F42" t="n">
-        <v>3631.2489</v>
+        <v>134</v>
       </c>
       <c r="G42" t="n">
-        <v>-34973.41379999999</v>
+        <v>-29647.96939999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>232</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>227</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2050,10 +2098,10 @@
         <v>231</v>
       </c>
       <c r="F43" t="n">
-        <v>2387.4168</v>
+        <v>1285.8509</v>
       </c>
       <c r="G43" t="n">
-        <v>-37360.83059999999</v>
+        <v>-28362.11849999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2062,7 +2110,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>227</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2078,22 +2128,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C44" t="n">
         <v>230</v>
       </c>
       <c r="D44" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E44" t="n">
         <v>230</v>
       </c>
       <c r="F44" t="n">
-        <v>698.623</v>
+        <v>7050</v>
       </c>
       <c r="G44" t="n">
-        <v>-38059.45359999999</v>
+        <v>-35412.1185</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2102,7 +2152,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>227</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2118,33 +2170,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C45" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D45" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E45" t="n">
         <v>230</v>
       </c>
       <c r="F45" t="n">
-        <v>9086.679400000001</v>
+        <v>264.1527</v>
       </c>
       <c r="G45" t="n">
-        <v>-38059.45359999999</v>
+        <v>-35147.9658</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>230</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>227</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2160,33 +2212,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C46" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D46" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E46" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F46" t="n">
-        <v>15</v>
+        <v>2.1726</v>
       </c>
       <c r="G46" t="n">
-        <v>-38044.45359999999</v>
+        <v>-35147.9658</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>230</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>227</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2202,33 +2254,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C47" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D47" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E47" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F47" t="n">
-        <v>2888.4447</v>
+        <v>450</v>
       </c>
       <c r="G47" t="n">
-        <v>-40932.89829999999</v>
+        <v>-35147.9658</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>231</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>227</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2244,33 +2296,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C48" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D48" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E48" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F48" t="n">
-        <v>3.1182</v>
+        <v>3.1887</v>
       </c>
       <c r="G48" t="n">
-        <v>-40929.7801</v>
+        <v>-35147.9658</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>230</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>227</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2298,21 +2350,21 @@
         <v>231</v>
       </c>
       <c r="F49" t="n">
-        <v>300</v>
+        <v>25.448</v>
       </c>
       <c r="G49" t="n">
-        <v>-40929.7801</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>231</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>227</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2340,21 +2392,21 @@
         <v>231</v>
       </c>
       <c r="F50" t="n">
-        <v>253</v>
+        <v>1791.141</v>
       </c>
       <c r="G50" t="n">
-        <v>-40929.7801</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>231</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>227</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,22 +2422,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C51" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D51" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E51" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F51" t="n">
-        <v>1.8965</v>
+        <v>40.8633</v>
       </c>
       <c r="G51" t="n">
-        <v>-40927.88359999999</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2394,7 +2446,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>227</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2410,22 +2464,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C52" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D52" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E52" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F52" t="n">
-        <v>39.6293</v>
+        <v>317</v>
       </c>
       <c r="G52" t="n">
-        <v>-40927.88359999999</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2434,7 +2488,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>227</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2450,62 +2506,64 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C53" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D53" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E53" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F53" t="n">
-        <v>49</v>
+        <v>110.6655796536797</v>
       </c>
       <c r="G53" t="n">
-        <v>-40927.88359999999</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>227</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
-        <v>1.004347826086956</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C54" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D54" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E54" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F54" t="n">
-        <v>449.325</v>
+        <v>178.7088</v>
       </c>
       <c r="G54" t="n">
-        <v>-41377.20859999999</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2514,8 +2572,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>227</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2590,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D55" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E55" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F55" t="n">
-        <v>2.0998</v>
+        <v>1783.7009</v>
       </c>
       <c r="G55" t="n">
-        <v>-41375.10879999999</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2550,8 +2614,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>227</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2565,19 +2635,19 @@
         <v>230</v>
       </c>
       <c r="C56" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D56" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E56" t="n">
         <v>230</v>
       </c>
       <c r="F56" t="n">
-        <v>2858.0508</v>
+        <v>1029.1125</v>
       </c>
       <c r="G56" t="n">
-        <v>-44233.15959999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2586,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>227</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2674,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C57" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E57" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>3486.4665</v>
       </c>
       <c r="G57" t="n">
-        <v>-44231.15959999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2622,8 +2698,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>227</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2646,10 +2728,10 @@
         <v>231</v>
       </c>
       <c r="F58" t="n">
-        <v>663.1648</v>
+        <v>5104.4179</v>
       </c>
       <c r="G58" t="n">
-        <v>-44894.32439999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2658,8 +2740,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>227</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2758,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C59" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D59" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E59" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F59" t="n">
-        <v>2.8706</v>
+        <v>2.1109</v>
       </c>
       <c r="G59" t="n">
-        <v>-44891.45379999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2694,8 +2782,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>227</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2718,10 +2812,10 @@
         <v>231</v>
       </c>
       <c r="F60" t="n">
-        <v>13730.1802</v>
+        <v>300</v>
       </c>
       <c r="G60" t="n">
-        <v>-58621.63399999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2730,8 +2824,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>227</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2742,36 +2842,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C61" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D61" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E61" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>563.801</v>
       </c>
       <c r="G61" t="n">
-        <v>-59121.63399999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>231</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>231</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
+        <v>227</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2782,22 +2884,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C62" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D62" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E62" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F62" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="G62" t="n">
-        <v>-58926.63399999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2807,11 +2909,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2827,19 +2929,19 @@
         <v>231</v>
       </c>
       <c r="C63" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D63" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E63" t="n">
         <v>231</v>
       </c>
       <c r="F63" t="n">
-        <v>2060.6714</v>
+        <v>2220.826</v>
       </c>
       <c r="G63" t="n">
-        <v>-58926.63399999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2849,11 +2951,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2866,22 +2968,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C64" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D64" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E64" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F64" t="n">
-        <v>1985</v>
+        <v>525</v>
       </c>
       <c r="G64" t="n">
-        <v>-58926.63399999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2891,7 +2993,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2908,22 +3010,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C65" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D65" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E65" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F65" t="n">
-        <v>3548.6547</v>
+        <v>2.0998</v>
       </c>
       <c r="G65" t="n">
-        <v>-58926.63399999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2933,7 +3035,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2962,10 +3064,10 @@
         <v>231</v>
       </c>
       <c r="F66" t="n">
-        <v>6873.5043</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-65800.13829999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2975,7 +3077,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2992,22 +3094,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C67" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D67" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E67" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F67" t="n">
-        <v>452.6474</v>
+        <v>56.03752034632035</v>
       </c>
       <c r="G67" t="n">
-        <v>-65347.49089999998</v>
+        <v>-35173.41379999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3017,7 +3119,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3046,10 +3148,10 @@
         <v>232</v>
       </c>
       <c r="F68" t="n">
-        <v>443.3526</v>
+        <v>200</v>
       </c>
       <c r="G68" t="n">
-        <v>-65347.49089999998</v>
+        <v>-34973.41379999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3059,7 +3161,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3076,22 +3178,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C69" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D69" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E69" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F69" t="n">
-        <v>2.0998</v>
+        <v>2.0198</v>
       </c>
       <c r="G69" t="n">
-        <v>-65345.39109999997</v>
+        <v>-34973.41379999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3101,7 +3203,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3118,22 +3220,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C70" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D70" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E70" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F70" t="n">
-        <v>630.901</v>
+        <v>641</v>
       </c>
       <c r="G70" t="n">
-        <v>-65345.39109999997</v>
+        <v>-34973.41379999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3143,15 +3245,15 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>1.017026431718062</v>
       </c>
       <c r="N70" t="inlineStr"/>
     </row>
@@ -3160,22 +3262,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C71" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D71" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E71" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F71" t="n">
-        <v>487.7296</v>
+        <v>3631.2489</v>
       </c>
       <c r="G71" t="n">
-        <v>-65345.39109999997</v>
+        <v>-34973.41379999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3184,14 +3286,8 @@
         <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>231</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3202,22 +3298,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C72" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D72" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E72" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>2387.4168</v>
       </c>
       <c r="G72" t="n">
-        <v>-65345.39109999997</v>
+        <v>-37360.83059999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3226,14 +3322,8 @@
         <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>231</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3247,19 +3337,19 @@
         <v>231</v>
       </c>
       <c r="C73" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D73" t="n">
         <v>231</v>
       </c>
       <c r="E73" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F73" t="n">
-        <v>178.1433</v>
+        <v>698.623</v>
       </c>
       <c r="G73" t="n">
-        <v>-65523.53439999997</v>
+        <v>-38059.45359999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3268,14 +3358,8 @@
         <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>231</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3286,72 +3370,64 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C74" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D74" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E74" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F74" t="n">
-        <v>2.1076</v>
+        <v>9086.679400000001</v>
       </c>
       <c r="G74" t="n">
-        <v>-65521.42679999997</v>
+        <v>-38059.45359999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>231</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>1.003658008658009</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C75" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D75" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E75" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G75" t="n">
-        <v>-65521.42679999997</v>
+        <v>-38044.45359999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3366,22 +3442,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C76" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D76" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E76" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F76" t="n">
-        <v>253.295</v>
+        <v>2888.4447</v>
       </c>
       <c r="G76" t="n">
-        <v>-65521.42679999997</v>
+        <v>-40932.89829999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3402,28 +3478,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C77" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D77" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E77" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F77" t="n">
-        <v>4238</v>
+        <v>3.1182</v>
       </c>
       <c r="G77" t="n">
-        <v>-65521.42679999997</v>
+        <v>-40929.7801</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3438,22 +3514,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C78" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D78" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E78" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F78" t="n">
-        <v>854.4129</v>
+        <v>300</v>
       </c>
       <c r="G78" t="n">
-        <v>-65521.42679999997</v>
+        <v>-40929.7801</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3474,22 +3550,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C79" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E79" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F79" t="n">
-        <v>992.8022999999999</v>
+        <v>253</v>
       </c>
       <c r="G79" t="n">
-        <v>-65521.42679999997</v>
+        <v>-40929.7801</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3510,22 +3586,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C80" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E80" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F80" t="n">
-        <v>714.1097</v>
+        <v>1.8965</v>
       </c>
       <c r="G80" t="n">
-        <v>-65521.42679999997</v>
+        <v>-40927.88359999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3546,22 +3622,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C81" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E81" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F81" t="n">
-        <v>626</v>
+        <v>39.6293</v>
       </c>
       <c r="G81" t="n">
-        <v>-65521.42679999997</v>
+        <v>-40927.88359999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3585,19 +3661,19 @@
         <v>232</v>
       </c>
       <c r="C82" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E82" t="n">
         <v>232</v>
       </c>
       <c r="F82" t="n">
-        <v>2477.7854</v>
+        <v>49</v>
       </c>
       <c r="G82" t="n">
-        <v>-65521.42679999997</v>
+        <v>-40927.88359999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3618,22 +3694,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C83" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D83" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E83" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F83" t="n">
-        <v>10725.0357</v>
+        <v>449.325</v>
       </c>
       <c r="G83" t="n">
-        <v>-65521.42679999997</v>
+        <v>-41377.20859999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3654,28 +3730,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E84" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F84" t="n">
-        <v>3159</v>
+        <v>2.0998</v>
       </c>
       <c r="G84" t="n">
-        <v>-65521.42679999997</v>
+        <v>-41375.10879999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3690,22 +3766,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C85" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D85" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E85" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F85" t="n">
-        <v>238</v>
+        <v>2858.0508</v>
       </c>
       <c r="G85" t="n">
-        <v>-65521.42679999997</v>
+        <v>-44233.15959999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3726,28 +3802,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C86" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D86" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E86" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F86" t="n">
-        <v>2546.9318</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>-65521.42679999997</v>
+        <v>-44231.15959999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3762,28 +3838,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D87" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E87" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F87" t="n">
-        <v>1985</v>
+        <v>663.1648</v>
       </c>
       <c r="G87" t="n">
-        <v>-67506.42679999997</v>
+        <v>-44894.32439999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3801,25 +3877,25 @@
         <v>232</v>
       </c>
       <c r="C88" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D88" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E88" t="n">
         <v>232</v>
       </c>
       <c r="F88" t="n">
-        <v>700.1729</v>
+        <v>2.8706</v>
       </c>
       <c r="G88" t="n">
-        <v>-66806.25389999997</v>
+        <v>-44891.45379999998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3834,28 +3910,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C89" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D89" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E89" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F89" t="n">
-        <v>721</v>
+        <v>13730.1802</v>
       </c>
       <c r="G89" t="n">
-        <v>-66806.25389999997</v>
+        <v>-58621.63399999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3870,28 +3946,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C90" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D90" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E90" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F90" t="n">
-        <v>2565.0665</v>
+        <v>500</v>
       </c>
       <c r="G90" t="n">
-        <v>-66806.25389999997</v>
+        <v>-59121.63399999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3906,28 +3982,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C91" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D91" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E91" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F91" t="n">
-        <v>9348.3385</v>
+        <v>195</v>
       </c>
       <c r="G91" t="n">
-        <v>-66806.25389999997</v>
+        <v>-58926.63399999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3942,28 +4018,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C92" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D92" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E92" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F92" t="n">
-        <v>1703</v>
+        <v>2060.6714</v>
       </c>
       <c r="G92" t="n">
-        <v>-66806.25389999997</v>
+        <v>-58926.63399999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3978,28 +4054,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D93" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E93" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F93" t="n">
-        <v>836.8572</v>
+        <v>1985</v>
       </c>
       <c r="G93" t="n">
-        <v>-66806.25389999997</v>
+        <v>-58926.63399999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4023,19 +4099,19 @@
         <v>232</v>
       </c>
       <c r="E94" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F94" t="n">
-        <v>23498.6824</v>
+        <v>3548.6547</v>
       </c>
       <c r="G94" t="n">
-        <v>-90304.93629999997</v>
+        <v>-58926.63399999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4050,28 +4126,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D95" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E95" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F95" t="n">
-        <v>5956</v>
+        <v>6873.5043</v>
       </c>
       <c r="G95" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65800.13829999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4086,28 +4162,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C96" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D96" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E96" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F96" t="n">
-        <v>538.8383</v>
+        <v>452.6474</v>
       </c>
       <c r="G96" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65347.49089999998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4122,28 +4198,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C97" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D97" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E97" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F97" t="n">
-        <v>6</v>
+        <v>443.3526</v>
       </c>
       <c r="G97" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65347.49089999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4170,16 +4246,16 @@
         <v>233</v>
       </c>
       <c r="F98" t="n">
-        <v>405.8358</v>
+        <v>2.0998</v>
       </c>
       <c r="G98" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65345.39109999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4206,16 +4282,16 @@
         <v>233</v>
       </c>
       <c r="F99" t="n">
-        <v>1099.764</v>
+        <v>630.901</v>
       </c>
       <c r="G99" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65345.39109999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4242,16 +4318,16 @@
         <v>233</v>
       </c>
       <c r="F100" t="n">
-        <v>330.5557</v>
+        <v>487.7296</v>
       </c>
       <c r="G100" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65345.39109999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4278,16 +4354,16 @@
         <v>233</v>
       </c>
       <c r="F101" t="n">
-        <v>612.3544000000001</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65345.39109999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4302,28 +4378,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C102" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D102" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E102" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F102" t="n">
-        <v>1378</v>
+        <v>178.1433</v>
       </c>
       <c r="G102" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65523.53439999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4350,16 +4426,16 @@
         <v>233</v>
       </c>
       <c r="F103" t="n">
-        <v>767</v>
+        <v>2.1076</v>
       </c>
       <c r="G103" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4386,16 +4462,16 @@
         <v>233</v>
       </c>
       <c r="F104" t="n">
-        <v>167.382</v>
+        <v>17</v>
       </c>
       <c r="G104" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4422,16 +4498,16 @@
         <v>233</v>
       </c>
       <c r="F105" t="n">
-        <v>16017.206</v>
+        <v>253.295</v>
       </c>
       <c r="G105" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4458,16 +4534,16 @@
         <v>233</v>
       </c>
       <c r="F106" t="n">
-        <v>17.167</v>
+        <v>4238</v>
       </c>
       <c r="G106" t="n">
-        <v>-84348.93629999997</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4482,28 +4558,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C107" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D107" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E107" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F107" t="n">
-        <v>6575.5348</v>
+        <v>854.4129</v>
       </c>
       <c r="G107" t="n">
-        <v>-90924.47109999997</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4518,22 +4594,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C108" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D108" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E108" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F108" t="n">
-        <v>1128.7392</v>
+        <v>992.8022999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>-92053.21029999996</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4554,7 +4630,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C109" t="n">
         <v>233</v>
@@ -4563,13 +4639,13 @@
         <v>233</v>
       </c>
       <c r="E109" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F109" t="n">
-        <v>500</v>
+        <v>714.1097</v>
       </c>
       <c r="G109" t="n">
-        <v>-91553.21029999996</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4590,22 +4666,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C110" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D110" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E110" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F110" t="n">
-        <v>891.3626</v>
+        <v>626</v>
       </c>
       <c r="G110" t="n">
-        <v>-92444.57289999996</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4626,7 +4702,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C111" t="n">
         <v>233</v>
@@ -4635,13 +4711,13 @@
         <v>233</v>
       </c>
       <c r="E111" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F111" t="n">
-        <v>2.1009</v>
+        <v>2477.7854</v>
       </c>
       <c r="G111" t="n">
-        <v>-92442.47199999995</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4662,22 +4738,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C112" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D112" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E112" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F112" t="n">
-        <v>164.7525</v>
+        <v>10725.0357</v>
       </c>
       <c r="G112" t="n">
-        <v>-92607.22449999995</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4698,22 +4774,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C113" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D113" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E113" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F113" t="n">
-        <v>870</v>
+        <v>3159</v>
       </c>
       <c r="G113" t="n">
-        <v>-92607.22449999995</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4734,22 +4810,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C114" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D114" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E114" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F114" t="n">
-        <v>435</v>
+        <v>238</v>
       </c>
       <c r="G114" t="n">
-        <v>-92172.22449999995</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4782,10 +4858,10 @@
         <v>233</v>
       </c>
       <c r="F115" t="n">
-        <v>2.0133</v>
+        <v>2546.9318</v>
       </c>
       <c r="G115" t="n">
-        <v>-92170.21119999995</v>
+        <v>-65521.42679999997</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4818,10 +4894,10 @@
         <v>232</v>
       </c>
       <c r="F116" t="n">
-        <v>217</v>
+        <v>1985</v>
       </c>
       <c r="G116" t="n">
-        <v>-92387.21119999995</v>
+        <v>-67506.42679999997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4842,22 +4918,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C117" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D117" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E117" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F117" t="n">
-        <v>2276.698</v>
+        <v>700.1729</v>
       </c>
       <c r="G117" t="n">
-        <v>-94663.90919999995</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4878,22 +4954,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C118" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D118" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E118" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F118" t="n">
-        <v>6075.8111</v>
+        <v>721</v>
       </c>
       <c r="G118" t="n">
-        <v>-94663.90919999995</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4926,10 +5002,10 @@
         <v>233</v>
       </c>
       <c r="F119" t="n">
-        <v>246.3047</v>
+        <v>2565.0665</v>
       </c>
       <c r="G119" t="n">
-        <v>-94417.60449999996</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4950,22 +5026,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C120" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D120" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E120" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F120" t="n">
-        <v>699</v>
+        <v>9348.3385</v>
       </c>
       <c r="G120" t="n">
-        <v>-95116.60449999996</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4986,22 +5062,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C121" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D121" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E121" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F121" t="n">
-        <v>4326.8111</v>
+        <v>1703</v>
       </c>
       <c r="G121" t="n">
-        <v>-95116.60449999996</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5022,22 +5098,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C122" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D122" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E122" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F122" t="n">
-        <v>552.6535</v>
+        <v>836.8572</v>
       </c>
       <c r="G122" t="n">
-        <v>-95116.60449999996</v>
+        <v>-66806.25389999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5058,22 +5134,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E123" t="n">
         <v>231</v>
       </c>
       <c r="F123" t="n">
-        <v>2549</v>
+        <v>23498.6824</v>
       </c>
       <c r="G123" t="n">
-        <v>-95116.60449999996</v>
+        <v>-90304.93629999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5094,22 +5170,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C124" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D124" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E124" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F124" t="n">
-        <v>158</v>
+        <v>5956</v>
       </c>
       <c r="G124" t="n">
-        <v>-95116.60449999996</v>
+        <v>-84348.93629999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5125,6 +5201,1132 @@
       </c>
       <c r="N124" t="inlineStr"/>
     </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>233</v>
+      </c>
+      <c r="C125" t="n">
+        <v>233</v>
+      </c>
+      <c r="D125" t="n">
+        <v>233</v>
+      </c>
+      <c r="E125" t="n">
+        <v>233</v>
+      </c>
+      <c r="F125" t="n">
+        <v>538.8383</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>233</v>
+      </c>
+      <c r="C126" t="n">
+        <v>233</v>
+      </c>
+      <c r="D126" t="n">
+        <v>233</v>
+      </c>
+      <c r="E126" t="n">
+        <v>233</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>233</v>
+      </c>
+      <c r="C127" t="n">
+        <v>233</v>
+      </c>
+      <c r="D127" t="n">
+        <v>233</v>
+      </c>
+      <c r="E127" t="n">
+        <v>233</v>
+      </c>
+      <c r="F127" t="n">
+        <v>405.8358</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>233</v>
+      </c>
+      <c r="C128" t="n">
+        <v>233</v>
+      </c>
+      <c r="D128" t="n">
+        <v>233</v>
+      </c>
+      <c r="E128" t="n">
+        <v>233</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1099.764</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>233</v>
+      </c>
+      <c r="C129" t="n">
+        <v>233</v>
+      </c>
+      <c r="D129" t="n">
+        <v>233</v>
+      </c>
+      <c r="E129" t="n">
+        <v>233</v>
+      </c>
+      <c r="F129" t="n">
+        <v>330.5557</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>233</v>
+      </c>
+      <c r="C130" t="n">
+        <v>233</v>
+      </c>
+      <c r="D130" t="n">
+        <v>233</v>
+      </c>
+      <c r="E130" t="n">
+        <v>233</v>
+      </c>
+      <c r="F130" t="n">
+        <v>612.3544000000001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>233</v>
+      </c>
+      <c r="C131" t="n">
+        <v>233</v>
+      </c>
+      <c r="D131" t="n">
+        <v>233</v>
+      </c>
+      <c r="E131" t="n">
+        <v>233</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1378</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>233</v>
+      </c>
+      <c r="C132" t="n">
+        <v>233</v>
+      </c>
+      <c r="D132" t="n">
+        <v>233</v>
+      </c>
+      <c r="E132" t="n">
+        <v>233</v>
+      </c>
+      <c r="F132" t="n">
+        <v>767</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>233</v>
+      </c>
+      <c r="C133" t="n">
+        <v>233</v>
+      </c>
+      <c r="D133" t="n">
+        <v>233</v>
+      </c>
+      <c r="E133" t="n">
+        <v>233</v>
+      </c>
+      <c r="F133" t="n">
+        <v>167.382</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>233</v>
+      </c>
+      <c r="C134" t="n">
+        <v>233</v>
+      </c>
+      <c r="D134" t="n">
+        <v>233</v>
+      </c>
+      <c r="E134" t="n">
+        <v>233</v>
+      </c>
+      <c r="F134" t="n">
+        <v>16017.206</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>233</v>
+      </c>
+      <c r="C135" t="n">
+        <v>233</v>
+      </c>
+      <c r="D135" t="n">
+        <v>233</v>
+      </c>
+      <c r="E135" t="n">
+        <v>233</v>
+      </c>
+      <c r="F135" t="n">
+        <v>17.167</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-84348.93629999997</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>232</v>
+      </c>
+      <c r="C136" t="n">
+        <v>232</v>
+      </c>
+      <c r="D136" t="n">
+        <v>232</v>
+      </c>
+      <c r="E136" t="n">
+        <v>232</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6575.5348</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-90924.47109999997</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>231</v>
+      </c>
+      <c r="C137" t="n">
+        <v>231</v>
+      </c>
+      <c r="D137" t="n">
+        <v>231</v>
+      </c>
+      <c r="E137" t="n">
+        <v>231</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1128.7392</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-92053.21029999996</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>232</v>
+      </c>
+      <c r="C138" t="n">
+        <v>233</v>
+      </c>
+      <c r="D138" t="n">
+        <v>233</v>
+      </c>
+      <c r="E138" t="n">
+        <v>232</v>
+      </c>
+      <c r="F138" t="n">
+        <v>500</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-91553.21029999996</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>231</v>
+      </c>
+      <c r="K138" t="n">
+        <v>231</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>232</v>
+      </c>
+      <c r="C139" t="n">
+        <v>232</v>
+      </c>
+      <c r="D139" t="n">
+        <v>232</v>
+      </c>
+      <c r="E139" t="n">
+        <v>232</v>
+      </c>
+      <c r="F139" t="n">
+        <v>891.3626</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-92444.57289999996</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>233</v>
+      </c>
+      <c r="K139" t="n">
+        <v>231</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>233</v>
+      </c>
+      <c r="C140" t="n">
+        <v>233</v>
+      </c>
+      <c r="D140" t="n">
+        <v>233</v>
+      </c>
+      <c r="E140" t="n">
+        <v>233</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.1009</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-92442.47199999995</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>231</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>231</v>
+      </c>
+      <c r="C141" t="n">
+        <v>231</v>
+      </c>
+      <c r="D141" t="n">
+        <v>231</v>
+      </c>
+      <c r="E141" t="n">
+        <v>231</v>
+      </c>
+      <c r="F141" t="n">
+        <v>164.7525</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-92607.22449999995</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>231</v>
+      </c>
+      <c r="C142" t="n">
+        <v>231</v>
+      </c>
+      <c r="D142" t="n">
+        <v>231</v>
+      </c>
+      <c r="E142" t="n">
+        <v>231</v>
+      </c>
+      <c r="F142" t="n">
+        <v>870</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-92607.22449999995</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>231</v>
+      </c>
+      <c r="K142" t="n">
+        <v>231</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>232</v>
+      </c>
+      <c r="C143" t="n">
+        <v>232</v>
+      </c>
+      <c r="D143" t="n">
+        <v>232</v>
+      </c>
+      <c r="E143" t="n">
+        <v>232</v>
+      </c>
+      <c r="F143" t="n">
+        <v>435</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-92172.22449999995</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>231</v>
+      </c>
+      <c r="K143" t="n">
+        <v>231</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>233</v>
+      </c>
+      <c r="C144" t="n">
+        <v>233</v>
+      </c>
+      <c r="D144" t="n">
+        <v>233</v>
+      </c>
+      <c r="E144" t="n">
+        <v>233</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.0133</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-92170.21119999995</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>232</v>
+      </c>
+      <c r="K144" t="n">
+        <v>231</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>232</v>
+      </c>
+      <c r="C145" t="n">
+        <v>232</v>
+      </c>
+      <c r="D145" t="n">
+        <v>232</v>
+      </c>
+      <c r="E145" t="n">
+        <v>232</v>
+      </c>
+      <c r="F145" t="n">
+        <v>217</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-92387.21119999995</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>231</v>
+      </c>
+      <c r="C146" t="n">
+        <v>231</v>
+      </c>
+      <c r="D146" t="n">
+        <v>231</v>
+      </c>
+      <c r="E146" t="n">
+        <v>231</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2276.698</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-94663.90919999995</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>232</v>
+      </c>
+      <c r="K146" t="n">
+        <v>232</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>231</v>
+      </c>
+      <c r="C147" t="n">
+        <v>231</v>
+      </c>
+      <c r="D147" t="n">
+        <v>231</v>
+      </c>
+      <c r="E147" t="n">
+        <v>231</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6075.8111</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-94663.90919999995</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>231</v>
+      </c>
+      <c r="K147" t="n">
+        <v>232</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>233</v>
+      </c>
+      <c r="C148" t="n">
+        <v>233</v>
+      </c>
+      <c r="D148" t="n">
+        <v>233</v>
+      </c>
+      <c r="E148" t="n">
+        <v>233</v>
+      </c>
+      <c r="F148" t="n">
+        <v>246.3047</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-94417.60449999996</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>231</v>
+      </c>
+      <c r="K148" t="n">
+        <v>232</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>231</v>
+      </c>
+      <c r="C149" t="n">
+        <v>231</v>
+      </c>
+      <c r="D149" t="n">
+        <v>231</v>
+      </c>
+      <c r="E149" t="n">
+        <v>231</v>
+      </c>
+      <c r="F149" t="n">
+        <v>699</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-95116.60449999996</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>233</v>
+      </c>
+      <c r="K149" t="n">
+        <v>233</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>231</v>
+      </c>
+      <c r="C150" t="n">
+        <v>231</v>
+      </c>
+      <c r="D150" t="n">
+        <v>231</v>
+      </c>
+      <c r="E150" t="n">
+        <v>231</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4326.8111</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-95116.60449999996</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>231</v>
+      </c>
+      <c r="K150" t="n">
+        <v>233</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>231</v>
+      </c>
+      <c r="C151" t="n">
+        <v>231</v>
+      </c>
+      <c r="D151" t="n">
+        <v>231</v>
+      </c>
+      <c r="E151" t="n">
+        <v>231</v>
+      </c>
+      <c r="F151" t="n">
+        <v>552.6535</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-95116.60449999996</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>231</v>
+      </c>
+      <c r="K151" t="n">
+        <v>233</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>231</v>
+      </c>
+      <c r="C152" t="n">
+        <v>231</v>
+      </c>
+      <c r="D152" t="n">
+        <v>231</v>
+      </c>
+      <c r="E152" t="n">
+        <v>231</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2549</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-95116.60449999996</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>231</v>
+      </c>
+      <c r="C153" t="n">
+        <v>231</v>
+      </c>
+      <c r="D153" t="n">
+        <v>231</v>
+      </c>
+      <c r="E153" t="n">
+        <v>231</v>
+      </c>
+      <c r="F153" t="n">
+        <v>158</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-95116.60449999996</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>231</v>
+      </c>
+      <c r="K153" t="n">
+        <v>231</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-15 BackTest KNC.xlsx
+++ b/BackTest/2019-10-15 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-11727.1326</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,22 +847,15 @@
         <v>-14691.9051</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>227</v>
-      </c>
-      <c r="K14" t="n">
-        <v>227</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -928,24 +880,21 @@
         <v>-14491.9051</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>227</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,24 +919,21 @@
         <v>-26491.9051</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>227</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1014,22 +960,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>227</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1056,22 +997,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>227</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1098,22 +1034,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>227</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1140,22 +1071,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>227</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1182,22 +1108,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>227</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1224,22 +1145,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>227</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1266,22 +1182,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>227</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1308,22 +1219,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>227</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1350,22 +1256,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>227</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1392,22 +1293,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>227</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1434,22 +1330,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>227</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1476,22 +1367,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>227</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1518,22 +1404,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>227</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1560,22 +1441,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>227</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1602,22 +1478,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>227</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1644,22 +1515,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>227</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1686,22 +1552,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>227</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1728,22 +1589,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>227</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1770,22 +1626,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>227</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1812,22 +1663,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>227</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1854,22 +1700,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>227</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1896,22 +1737,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>227</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1938,22 +1774,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>227</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1980,22 +1811,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>227</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2022,22 +1848,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>227</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2064,22 +1885,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>227</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2106,22 +1922,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>227</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2148,22 +1959,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>227</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2190,22 +1996,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>227</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2232,22 +2033,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>227</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2274,22 +2070,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>227</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2316,22 +2107,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>227</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2358,22 +2144,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>227</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2400,22 +2181,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>227</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2442,22 +2218,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>227</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2482,24 +2253,21 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>227</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2524,24 +2292,21 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>227</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2566,24 +2331,21 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>227</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2610,22 +2372,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>227</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2652,22 +2409,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>227</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2694,22 +2446,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>227</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2736,22 +2483,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>227</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2778,22 +2520,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>227</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2820,22 +2557,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>227</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2862,22 +2594,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>227</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2904,22 +2631,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>227</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2946,22 +2668,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>227</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2988,22 +2705,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>227</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3030,22 +2742,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>227</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3072,22 +2779,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>227</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3114,22 +2816,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>227</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3156,22 +2853,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>227</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3198,22 +2890,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>227</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3240,22 +2927,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>227</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1.017026431718062</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3280,18 +2962,19 @@
         <v>-34973.41379999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3316,18 +2999,19 @@
         <v>-37360.83059999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3354,16 +3038,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3390,16 +3075,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3426,16 +3112,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3460,18 +3147,19 @@
         <v>-40932.89829999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3498,16 +3186,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3532,18 +3221,19 @@
         <v>-40929.7801</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3568,18 +3258,19 @@
         <v>-40929.7801</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3604,18 +3295,19 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3642,16 +3334,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3676,18 +3369,19 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3714,16 +3408,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3750,16 +3445,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3786,16 +3482,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3822,16 +3519,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3858,16 +3556,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3894,16 +3593,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3930,16 +3630,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3966,16 +3667,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4002,16 +3704,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4038,16 +3741,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4074,16 +3778,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4110,16 +3815,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4146,16 +3852,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4182,16 +3889,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4218,16 +3926,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4254,16 +3963,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4290,16 +4000,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4326,16 +4037,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4362,16 +4074,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4398,16 +4111,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4432,18 +4146,17 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4468,18 +4181,15 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4504,18 +4214,15 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4540,18 +4247,15 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4576,18 +4280,15 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4612,18 +4313,15 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4648,18 +4346,15 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4686,16 +4381,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4722,16 +4414,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4758,16 +4447,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4794,16 +4480,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4830,16 +4513,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4866,16 +4546,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4900,18 +4577,15 @@
         <v>-67506.42679999997</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4938,16 +4612,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4974,16 +4645,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5010,16 +4678,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5046,16 +4711,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5082,16 +4744,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5118,16 +4777,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5154,16 +4810,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5190,16 +4843,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5226,16 +4876,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5262,16 +4909,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5298,16 +4942,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5334,16 +4975,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5370,16 +5008,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5406,16 +5041,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5442,16 +5074,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5478,16 +5107,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5514,16 +5140,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5550,16 +5173,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5586,16 +5206,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5622,16 +5239,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5658,16 +5272,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5692,22 +5303,15 @@
         <v>-91553.21029999996</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>231</v>
-      </c>
-      <c r="K138" t="n">
-        <v>231</v>
-      </c>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5732,26 +5336,15 @@
         <v>-92444.57289999996</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>233</v>
-      </c>
-      <c r="K139" t="n">
-        <v>231</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5778,22 +5371,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>231</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5820,16 +5404,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5854,22 +5435,15 @@
         <v>-92607.22449999995</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>231</v>
-      </c>
-      <c r="K142" t="n">
-        <v>231</v>
-      </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5894,26 +5468,15 @@
         <v>-92172.22449999995</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>231</v>
-      </c>
-      <c r="K143" t="n">
-        <v>231</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5938,26 +5501,15 @@
         <v>-92170.21119999995</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>232</v>
-      </c>
-      <c r="K144" t="n">
-        <v>231</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5984,16 +5536,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6018,22 +5567,15 @@
         <v>-94663.90919999995</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>232</v>
-      </c>
-      <c r="K146" t="n">
-        <v>232</v>
-      </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6058,26 +5600,15 @@
         <v>-94663.90919999995</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>231</v>
-      </c>
-      <c r="K147" t="n">
-        <v>232</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6102,26 +5633,15 @@
         <v>-94417.60449999996</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>231</v>
-      </c>
-      <c r="K148" t="n">
-        <v>232</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6146,22 +5666,15 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>233</v>
-      </c>
-      <c r="K149" t="n">
-        <v>233</v>
-      </c>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6186,26 +5699,15 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>231</v>
-      </c>
-      <c r="K150" t="n">
-        <v>233</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6230,26 +5732,15 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>231</v>
-      </c>
-      <c r="K151" t="n">
-        <v>233</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6276,16 +5767,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6310,24 +5798,17 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>231</v>
-      </c>
-      <c r="K153" t="n">
-        <v>231</v>
-      </c>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest KNC.xlsx
+++ b/BackTest/2019-10-15 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,17 +880,11 @@
         <v>-14491.9051</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -919,17 +913,11 @@
         <v>-26491.9051</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -962,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -999,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1036,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1073,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1110,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1147,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1184,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1221,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1258,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1295,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1332,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1369,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1406,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1443,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1480,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1517,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1554,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1628,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1665,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1702,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1739,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1776,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1813,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1850,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1887,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1924,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1961,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1998,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2072,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2109,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2146,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2220,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2253,17 +2101,15 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>231</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="n">
+        <v>231</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2292,15 +2138,15 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>231</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>231</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2331,15 +2177,17 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>231</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>231</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2374,11 +2222,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2411,11 +2255,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2448,11 +2288,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2485,11 +2321,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2522,11 +2354,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2559,11 +2387,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2420,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2633,11 +2453,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2670,11 +2486,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2707,11 +2519,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2744,11 +2552,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2781,11 +2585,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2818,11 +2618,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2855,11 +2651,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2892,11 +2684,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2925,15 +2713,11 @@
         <v>-34973.41379999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2962,15 +2746,11 @@
         <v>-34973.41379999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2999,15 +2779,11 @@
         <v>-37360.83059999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3036,15 +2812,11 @@
         <v>-38059.45359999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3073,15 +2845,11 @@
         <v>-38059.45359999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3110,15 +2878,11 @@
         <v>-38044.45359999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3147,15 +2911,11 @@
         <v>-40932.89829999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3188,11 +2948,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3221,15 +2977,11 @@
         <v>-40929.7801</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3258,15 +3010,11 @@
         <v>-40929.7801</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3295,15 +3043,11 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3336,11 +3080,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3369,15 +3109,11 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3406,15 +3142,11 @@
         <v>-41377.20859999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3443,15 +3175,11 @@
         <v>-41375.10879999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3480,15 +3208,11 @@
         <v>-44233.15959999998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3517,15 +3241,11 @@
         <v>-44231.15959999998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3554,15 +3274,11 @@
         <v>-44894.32439999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3591,15 +3307,11 @@
         <v>-44891.45379999998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3628,15 +3340,11 @@
         <v>-58621.63399999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3665,15 +3373,11 @@
         <v>-59121.63399999998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3702,15 +3406,11 @@
         <v>-58926.63399999998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3739,15 +3439,11 @@
         <v>-58926.63399999998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3776,15 +3472,11 @@
         <v>-58926.63399999998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3813,15 +3505,11 @@
         <v>-58926.63399999998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3850,15 +3538,11 @@
         <v>-65800.13829999998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3887,15 +3571,11 @@
         <v>-65347.49089999998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3928,11 +3608,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3965,11 +3641,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4002,11 +3674,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4039,11 +3707,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4076,11 +3740,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4109,15 +3769,11 @@
         <v>-65523.53439999997</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4146,16 +3802,14 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
       <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -4181,7 +3835,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4214,7 +3868,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4247,7 +3901,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4280,7 +3934,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4313,7 +3967,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4346,7 +4000,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4379,7 +4033,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4412,7 +4066,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4445,7 +4099,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4577,7 +4231,7 @@
         <v>-67506.42679999997</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4610,7 +4264,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4643,7 +4297,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4676,7 +4330,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4709,7 +4363,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4742,7 +4396,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4775,7 +4429,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4808,7 +4462,7 @@
         <v>-90304.93629999997</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4841,7 +4495,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4874,7 +4528,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4907,7 +4561,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4940,7 +4594,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4973,7 +4627,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5006,7 +4660,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5039,7 +4693,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5072,7 +4726,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5105,7 +4759,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5138,7 +4792,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5171,7 +4825,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5204,7 +4858,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5237,7 +4891,7 @@
         <v>-90924.47109999997</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5270,7 +4924,7 @@
         <v>-92053.21029999996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5303,7 +4957,7 @@
         <v>-91553.21029999996</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5336,7 +4990,7 @@
         <v>-92444.57289999996</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5369,7 +5023,7 @@
         <v>-92442.47199999995</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5468,10 +5122,14 @@
         <v>-92172.22449999995</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>231</v>
+      </c>
+      <c r="J143" t="n">
+        <v>231</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5501,11 +5159,17 @@
         <v>-92170.21119999995</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>231</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5534,11 +5198,17 @@
         <v>-92387.21119999995</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>231</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5600,10 +5270,14 @@
         <v>-94663.90919999995</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>231</v>
+      </c>
+      <c r="J147" t="n">
+        <v>231</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5633,11 +5307,19 @@
         <v>-94417.60449999996</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>231</v>
+      </c>
+      <c r="J148" t="n">
+        <v>231</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5669,8 +5351,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>231</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5732,10 +5420,14 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>231</v>
+      </c>
+      <c r="J151" t="n">
+        <v>231</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5765,11 +5457,19 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>231</v>
+      </c>
+      <c r="J152" t="n">
+        <v>231</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5798,17 +5498,25 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>231</v>
+      </c>
+      <c r="J153" t="n">
+        <v>231</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
       <c r="M153" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest KNC.xlsx
+++ b/BackTest/2019-10-15 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2068,7 +2068,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,14 +2101,10 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>231</v>
-      </c>
-      <c r="J52" t="n">
-        <v>231</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
@@ -2138,17 +2134,11 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>231</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2177,19 +2167,11 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>231</v>
-      </c>
-      <c r="J54" t="n">
-        <v>231</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2713,7 +2695,7 @@
         <v>-34973.41379999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +2728,7 @@
         <v>-34973.41379999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +2761,7 @@
         <v>-37360.83059999999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +2794,7 @@
         <v>-38059.45359999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +2827,7 @@
         <v>-38059.45359999999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +2860,7 @@
         <v>-38044.45359999999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +2893,7 @@
         <v>-40932.89829999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3109,7 +3091,7 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3142,7 +3124,7 @@
         <v>-41377.20859999999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3175,7 +3157,7 @@
         <v>-41375.10879999999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3208,7 +3190,7 @@
         <v>-44233.15959999998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3241,7 +3223,7 @@
         <v>-44231.15959999998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3274,7 +3256,7 @@
         <v>-44894.32439999998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3307,7 +3289,7 @@
         <v>-44891.45379999998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3340,7 +3322,7 @@
         <v>-58621.63399999998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3373,7 +3355,7 @@
         <v>-59121.63399999998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3406,7 +3388,7 @@
         <v>-58926.63399999998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3439,7 +3421,7 @@
         <v>-58926.63399999998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3472,7 +3454,7 @@
         <v>-58926.63399999998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3505,7 +3487,7 @@
         <v>-58926.63399999998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3538,7 +3520,7 @@
         <v>-65800.13829999998</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3571,7 +3553,7 @@
         <v>-65347.49089999998</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3769,7 +3751,7 @@
         <v>-65523.53439999997</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3802,7 +3784,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3835,7 +3817,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3868,7 +3850,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3901,7 +3883,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3934,7 +3916,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3967,7 +3949,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4000,7 +3982,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4033,7 +4015,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4066,7 +4048,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4099,7 +4081,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4231,7 +4213,7 @@
         <v>-67506.42679999997</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4264,7 +4246,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4279,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4312,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4363,7 +4345,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4396,7 +4378,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4429,7 +4411,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4462,7 +4444,7 @@
         <v>-90304.93629999997</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4495,7 +4477,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4528,7 +4510,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4561,7 +4543,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4594,7 +4576,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4627,7 +4609,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4660,7 +4642,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4693,7 +4675,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4726,7 +4708,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4759,7 +4741,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4792,7 +4774,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4825,7 +4807,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4858,7 +4840,7 @@
         <v>-84348.93629999997</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4891,7 +4873,7 @@
         <v>-90924.47109999997</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4924,7 +4906,7 @@
         <v>-92053.21029999996</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4957,7 +4939,7 @@
         <v>-91553.21029999996</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4990,7 +4972,7 @@
         <v>-92444.57289999996</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5023,7 +5005,7 @@
         <v>-92442.47199999995</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5122,14 +5104,10 @@
         <v>-92172.22449999995</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>231</v>
-      </c>
-      <c r="J143" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5159,17 +5137,11 @@
         <v>-92170.21119999995</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>231</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5198,17 +5170,11 @@
         <v>-92387.21119999995</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>231</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5270,14 +5236,10 @@
         <v>-94663.90919999995</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>231</v>
-      </c>
-      <c r="J147" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5307,19 +5269,11 @@
         <v>-94417.60449999996</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>231</v>
-      </c>
-      <c r="J148" t="n">
-        <v>231</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>231</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5457,11 +5405,9 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>231</v>
       </c>
@@ -5498,11 +5444,9 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>231</v>
       </c>
@@ -5517,6 +5461,6 @@
       <c r="M153" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest KNC.xlsx
+++ b/BackTest/2019-10-15 BackTest KNC.xlsx
@@ -2068,7 +2068,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-34973.41379999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-37360.83059999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-41377.20859999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-58621.63399999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-65345.39109999997</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-65345.39109999997</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-65523.53439999997</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5038,10 +5038,14 @@
         <v>-92607.22449999995</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>233</v>
+      </c>
+      <c r="J141" t="n">
+        <v>233</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5071,11 +5075,19 @@
         <v>-92607.22449999995</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>231</v>
+      </c>
+      <c r="J142" t="n">
+        <v>233</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5116,19 @@
         <v>-92172.22449999995</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>231</v>
+      </c>
+      <c r="J143" t="n">
+        <v>233</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,10 +5157,14 @@
         <v>-92170.21119999995</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>232</v>
+      </c>
+      <c r="J144" t="n">
+        <v>232</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5173,8 +5197,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>232</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5233,19 @@
         <v>-94663.90919999995</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>232</v>
+      </c>
+      <c r="J146" t="n">
+        <v>232</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,10 +5274,14 @@
         <v>-94663.90919999995</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>231</v>
+      </c>
+      <c r="J147" t="n">
+        <v>231</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5269,11 +5311,19 @@
         <v>-94417.60449999996</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>231</v>
+      </c>
+      <c r="J148" t="n">
+        <v>231</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5355,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>231</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,10 +5391,14 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>231</v>
+      </c>
+      <c r="J150" t="n">
+        <v>231</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5376,7 +5436,11 @@
       <c r="J151" t="n">
         <v>231</v>
       </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,9 +5469,11 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>231</v>
+      </c>
       <c r="J152" t="n">
         <v>231</v>
       </c>
@@ -5444,17 +5510,15 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>231</v>
+      </c>
       <c r="J153" t="n">
         <v>231</v>
       </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-15 BackTest KNC.xlsx
+++ b/BackTest/2019-10-15 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>-11727.1326</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>599.9998000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-11727.1326</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>299.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>-11727.1326</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>227</v>
+      </c>
+      <c r="I4" t="n">
+        <v>227</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +537,21 @@
         <v>583</v>
       </c>
       <c r="G5" t="n">
-        <v>-11727.1326</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>227</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +573,23 @@
         <v>386.283</v>
       </c>
       <c r="G6" t="n">
-        <v>-12113.4156</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>227</v>
+      </c>
+      <c r="I6" t="n">
+        <v>227</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +611,21 @@
         <v>2.0998</v>
       </c>
       <c r="G7" t="n">
-        <v>-12111.3158</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>227</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +647,21 @@
         <v>383.446</v>
       </c>
       <c r="G8" t="n">
-        <v>-12494.7618</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>227</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +683,21 @@
         <v>78.31619999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>-12494.7618</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>227</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +719,21 @@
         <v>17.0281</v>
       </c>
       <c r="G10" t="n">
-        <v>-12511.7899</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>227</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +755,21 @@
         <v>300</v>
       </c>
       <c r="G11" t="n">
-        <v>-12211.7899</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>227</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +791,21 @@
         <v>200</v>
       </c>
       <c r="G12" t="n">
-        <v>-12211.7899</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>227</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +827,21 @@
         <v>2780.1152</v>
       </c>
       <c r="G13" t="n">
-        <v>-14991.9051</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>227</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +863,21 @@
         <v>300</v>
       </c>
       <c r="G14" t="n">
-        <v>-14691.9051</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>227</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +899,21 @@
         <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>-14491.9051</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>227</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +935,21 @@
         <v>12000</v>
       </c>
       <c r="G16" t="n">
-        <v>-26491.9051</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>227</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +971,21 @@
         <v>38.31</v>
       </c>
       <c r="G17" t="n">
-        <v>-26491.9051</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>227</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1007,21 @@
         <v>227.8341</v>
       </c>
       <c r="G18" t="n">
-        <v>-26264.071</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>227</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1043,21 @@
         <v>2185.5531</v>
       </c>
       <c r="G19" t="n">
-        <v>-28449.6241</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>227</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1079,21 @@
         <v>102.4049</v>
       </c>
       <c r="G20" t="n">
-        <v>-28347.2192</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>227</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1115,21 @@
         <v>2.1908</v>
       </c>
       <c r="G21" t="n">
-        <v>-28345.0284</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>227</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1151,21 @@
         <v>366.297</v>
       </c>
       <c r="G22" t="n">
-        <v>-28345.0284</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>227</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1187,21 @@
         <v>2521.5524</v>
       </c>
       <c r="G23" t="n">
-        <v>-28345.0284</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>227</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1223,21 @@
         <v>2.1067</v>
       </c>
       <c r="G24" t="n">
-        <v>-28342.9217</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>227</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1259,21 @@
         <v>626.2157999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-28969.1375</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>227</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1295,21 @@
         <v>775.1921</v>
       </c>
       <c r="G26" t="n">
-        <v>-28193.9454</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>227</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1331,21 @@
         <v>804.9891</v>
       </c>
       <c r="G27" t="n">
-        <v>-28998.9345</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>227</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1367,21 @@
         <v>1.1403</v>
       </c>
       <c r="G28" t="n">
-        <v>-28997.7942</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>227</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1403,21 @@
         <v>64.8079</v>
       </c>
       <c r="G29" t="n">
-        <v>-29062.6021</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>227</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1439,21 @@
         <v>1246.5202</v>
       </c>
       <c r="G30" t="n">
-        <v>-29062.6021</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>227</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1475,21 @@
         <v>2.1489</v>
       </c>
       <c r="G31" t="n">
-        <v>-29060.4532</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>227</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1511,21 @@
         <v>128.279</v>
       </c>
       <c r="G32" t="n">
-        <v>-29188.73219999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>227</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1547,21 @@
         <v>104.2884</v>
       </c>
       <c r="G33" t="n">
-        <v>-29188.73219999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>227</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1583,21 @@
         <v>3.1119</v>
       </c>
       <c r="G34" t="n">
-        <v>-29188.73219999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>227</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1619,21 @@
         <v>500</v>
       </c>
       <c r="G35" t="n">
-        <v>-29188.73219999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>227</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1655,21 @@
         <v>351.8</v>
       </c>
       <c r="G36" t="n">
-        <v>-29188.73219999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>227</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1691,21 @@
         <v>2.1116</v>
       </c>
       <c r="G37" t="n">
-        <v>-29186.62059999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>227</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1727,21 @@
         <v>1.0712</v>
       </c>
       <c r="G38" t="n">
-        <v>-29186.62059999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>227</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1763,21 @@
         <v>300</v>
       </c>
       <c r="G39" t="n">
-        <v>-29486.62059999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>227</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1799,21 @@
         <v>5.0999</v>
       </c>
       <c r="G40" t="n">
-        <v>-29481.52069999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>227</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1835,21 @@
         <v>166.4487</v>
       </c>
       <c r="G41" t="n">
-        <v>-29647.96939999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>227</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1871,21 @@
         <v>134</v>
       </c>
       <c r="G42" t="n">
-        <v>-29647.96939999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>227</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1907,21 @@
         <v>1285.8509</v>
       </c>
       <c r="G43" t="n">
-        <v>-28362.11849999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>227</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1943,21 @@
         <v>7050</v>
       </c>
       <c r="G44" t="n">
-        <v>-35412.1185</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>227</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1979,21 @@
         <v>264.1527</v>
       </c>
       <c r="G45" t="n">
-        <v>-35147.9658</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>227</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2015,21 @@
         <v>2.1726</v>
       </c>
       <c r="G46" t="n">
-        <v>-35147.9658</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>227</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2051,21 @@
         <v>450</v>
       </c>
       <c r="G47" t="n">
-        <v>-35147.9658</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>227</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2087,21 @@
         <v>3.1887</v>
       </c>
       <c r="G48" t="n">
-        <v>-35147.9658</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>227</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2123,21 @@
         <v>25.448</v>
       </c>
       <c r="G49" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>227</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2159,21 @@
         <v>1791.141</v>
       </c>
       <c r="G50" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>227</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2195,21 @@
         <v>40.8633</v>
       </c>
       <c r="G51" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>227</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2231,21 @@
         <v>317</v>
       </c>
       <c r="G52" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>227</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2267,21 @@
         <v>110.6655796536797</v>
       </c>
       <c r="G53" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>227</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2303,21 @@
         <v>178.7088</v>
       </c>
       <c r="G54" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>227</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2339,21 @@
         <v>1783.7009</v>
       </c>
       <c r="G55" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>227</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2375,21 @@
         <v>1029.1125</v>
       </c>
       <c r="G56" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>227</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2411,21 @@
         <v>3486.4665</v>
       </c>
       <c r="G57" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>227</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2447,21 @@
         <v>5104.4179</v>
       </c>
       <c r="G58" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>227</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2483,21 @@
         <v>2.1109</v>
       </c>
       <c r="G59" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>227</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2519,21 @@
         <v>300</v>
       </c>
       <c r="G60" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>227</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2555,21 @@
         <v>563.801</v>
       </c>
       <c r="G61" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>227</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2591,21 @@
         <v>300</v>
       </c>
       <c r="G62" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>227</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2627,21 @@
         <v>2220.826</v>
       </c>
       <c r="G63" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>227</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2663,21 @@
         <v>525</v>
       </c>
       <c r="G64" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>227</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2699,21 @@
         <v>2.0998</v>
       </c>
       <c r="G65" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>227</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2735,21 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>227</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2771,21 @@
         <v>56.03752034632035</v>
       </c>
       <c r="G67" t="n">
-        <v>-35173.41379999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>227</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2807,21 @@
         <v>200</v>
       </c>
       <c r="G68" t="n">
-        <v>-34973.41379999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>227</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2843,21 @@
         <v>2.0198</v>
       </c>
       <c r="G69" t="n">
-        <v>-34973.41379999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>227</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2879,21 @@
         <v>641</v>
       </c>
       <c r="G70" t="n">
-        <v>-34973.41379999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>227</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2915,21 @@
         <v>3631.2489</v>
       </c>
       <c r="G71" t="n">
-        <v>-34973.41379999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>227</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2951,21 @@
         <v>2387.4168</v>
       </c>
       <c r="G72" t="n">
-        <v>-37360.83059999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>227</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2987,21 @@
         <v>698.623</v>
       </c>
       <c r="G73" t="n">
-        <v>-38059.45359999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>227</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3023,21 @@
         <v>9086.679400000001</v>
       </c>
       <c r="G74" t="n">
-        <v>-38059.45359999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>227</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3059,21 @@
         <v>15</v>
       </c>
       <c r="G75" t="n">
-        <v>-38044.45359999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>227</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3095,21 @@
         <v>2888.4447</v>
       </c>
       <c r="G76" t="n">
-        <v>-40932.89829999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>227</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3131,21 @@
         <v>3.1182</v>
       </c>
       <c r="G77" t="n">
-        <v>-40929.7801</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>227</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3167,21 @@
         <v>300</v>
       </c>
       <c r="G78" t="n">
-        <v>-40929.7801</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>227</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3203,21 @@
         <v>253</v>
       </c>
       <c r="G79" t="n">
-        <v>-40929.7801</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>227</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3239,21 @@
         <v>1.8965</v>
       </c>
       <c r="G80" t="n">
-        <v>-40927.88359999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>227</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3275,21 @@
         <v>39.6293</v>
       </c>
       <c r="G81" t="n">
-        <v>-40927.88359999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>227</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3311,21 @@
         <v>49</v>
       </c>
       <c r="G82" t="n">
-        <v>-40927.88359999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>227</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3347,21 @@
         <v>449.325</v>
       </c>
       <c r="G83" t="n">
-        <v>-41377.20859999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>227</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3383,21 @@
         <v>2.0998</v>
       </c>
       <c r="G84" t="n">
-        <v>-41375.10879999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>227</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3419,21 @@
         <v>2858.0508</v>
       </c>
       <c r="G85" t="n">
-        <v>-44233.15959999998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>227</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3455,21 @@
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>-44231.15959999998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>227</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3491,21 @@
         <v>663.1648</v>
       </c>
       <c r="G87" t="n">
-        <v>-44894.32439999998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>227</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3527,21 @@
         <v>2.8706</v>
       </c>
       <c r="G88" t="n">
-        <v>-44891.45379999998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>227</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3563,21 @@
         <v>13730.1802</v>
       </c>
       <c r="G89" t="n">
-        <v>-58621.63399999998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>227</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3599,21 @@
         <v>500</v>
       </c>
       <c r="G90" t="n">
-        <v>-59121.63399999998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>227</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3635,21 @@
         <v>195</v>
       </c>
       <c r="G91" t="n">
-        <v>-58926.63399999998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>227</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3671,21 @@
         <v>2060.6714</v>
       </c>
       <c r="G92" t="n">
-        <v>-58926.63399999998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>227</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3707,21 @@
         <v>1985</v>
       </c>
       <c r="G93" t="n">
-        <v>-58926.63399999998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>227</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3743,21 @@
         <v>3548.6547</v>
       </c>
       <c r="G94" t="n">
-        <v>-58926.63399999998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>227</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3779,21 @@
         <v>6873.5043</v>
       </c>
       <c r="G95" t="n">
-        <v>-65800.13829999998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>227</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3815,21 @@
         <v>452.6474</v>
       </c>
       <c r="G96" t="n">
-        <v>-65347.49089999998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>227</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3851,21 @@
         <v>443.3526</v>
       </c>
       <c r="G97" t="n">
-        <v>-65347.49089999998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>227</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3887,21 @@
         <v>2.0998</v>
       </c>
       <c r="G98" t="n">
-        <v>-65345.39109999997</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>227</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3923,21 @@
         <v>630.901</v>
       </c>
       <c r="G99" t="n">
-        <v>-65345.39109999997</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>227</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3959,21 @@
         <v>487.7296</v>
       </c>
       <c r="G100" t="n">
-        <v>-65345.39109999997</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>227</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3995,21 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-65345.39109999997</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>227</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +4031,21 @@
         <v>178.1433</v>
       </c>
       <c r="G102" t="n">
-        <v>-65523.53439999997</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>227</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +4067,21 @@
         <v>2.1076</v>
       </c>
       <c r="G103" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>227</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +4103,21 @@
         <v>17</v>
       </c>
       <c r="G104" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>227</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +4139,21 @@
         <v>253.295</v>
       </c>
       <c r="G105" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>227</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4175,21 @@
         <v>4238</v>
       </c>
       <c r="G106" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>227</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4211,21 @@
         <v>854.4129</v>
       </c>
       <c r="G107" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>227</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4247,21 @@
         <v>992.8022999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>227</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4283,21 @@
         <v>714.1097</v>
       </c>
       <c r="G109" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>227</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4319,21 @@
         <v>626</v>
       </c>
       <c r="G110" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>227</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4355,21 @@
         <v>2477.7854</v>
       </c>
       <c r="G111" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>227</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4391,21 @@
         <v>10725.0357</v>
       </c>
       <c r="G112" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>227</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4427,21 @@
         <v>3159</v>
       </c>
       <c r="G113" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>227</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4463,21 @@
         <v>238</v>
       </c>
       <c r="G114" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>227</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4499,21 @@
         <v>2546.9318</v>
       </c>
       <c r="G115" t="n">
-        <v>-65521.42679999997</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>227</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4535,21 @@
         <v>1985</v>
       </c>
       <c r="G116" t="n">
-        <v>-67506.42679999997</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>227</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4571,21 @@
         <v>700.1729</v>
       </c>
       <c r="G117" t="n">
-        <v>-66806.25389999997</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>227</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4607,21 @@
         <v>721</v>
       </c>
       <c r="G118" t="n">
-        <v>-66806.25389999997</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>227</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4643,21 @@
         <v>2565.0665</v>
       </c>
       <c r="G119" t="n">
-        <v>-66806.25389999997</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>227</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4679,21 @@
         <v>9348.3385</v>
       </c>
       <c r="G120" t="n">
-        <v>-66806.25389999997</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>227</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4715,21 @@
         <v>1703</v>
       </c>
       <c r="G121" t="n">
-        <v>-66806.25389999997</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>227</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4751,21 @@
         <v>836.8572</v>
       </c>
       <c r="G122" t="n">
-        <v>-66806.25389999997</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>227</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4787,21 @@
         <v>23498.6824</v>
       </c>
       <c r="G123" t="n">
-        <v>-90304.93629999997</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>227</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4823,21 @@
         <v>5956</v>
       </c>
       <c r="G124" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>227</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4859,21 @@
         <v>538.8383</v>
       </c>
       <c r="G125" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>227</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4895,21 @@
         <v>6</v>
       </c>
       <c r="G126" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>227</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4931,21 @@
         <v>405.8358</v>
       </c>
       <c r="G127" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>227</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4967,21 @@
         <v>1099.764</v>
       </c>
       <c r="G128" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>227</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +5003,21 @@
         <v>330.5557</v>
       </c>
       <c r="G129" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>227</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +5039,21 @@
         <v>612.3544000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>227</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1.021431718061674</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +5075,15 @@
         <v>1378</v>
       </c>
       <c r="G131" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +5105,15 @@
         <v>767</v>
       </c>
       <c r="G132" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +5135,15 @@
         <v>167.382</v>
       </c>
       <c r="G133" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +5165,15 @@
         <v>16017.206</v>
       </c>
       <c r="G134" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +5195,15 @@
         <v>17.167</v>
       </c>
       <c r="G135" t="n">
-        <v>-84348.93629999997</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +5225,15 @@
         <v>6575.5348</v>
       </c>
       <c r="G136" t="n">
-        <v>-90924.47109999997</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5255,15 @@
         <v>1128.7392</v>
       </c>
       <c r="G137" t="n">
-        <v>-92053.21029999996</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5285,15 @@
         <v>500</v>
       </c>
       <c r="G138" t="n">
-        <v>-91553.21029999996</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5315,15 @@
         <v>891.3626</v>
       </c>
       <c r="G139" t="n">
-        <v>-92444.57289999996</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5345,15 @@
         <v>2.1009</v>
       </c>
       <c r="G140" t="n">
-        <v>-92442.47199999995</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,22 +5375,15 @@
         <v>164.7525</v>
       </c>
       <c r="G141" t="n">
-        <v>-92607.22449999995</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>233</v>
-      </c>
-      <c r="J141" t="n">
-        <v>233</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5072,26 +5405,15 @@
         <v>870</v>
       </c>
       <c r="G142" t="n">
-        <v>-92607.22449999995</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>231</v>
-      </c>
-      <c r="J142" t="n">
-        <v>233</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5113,26 +5435,15 @@
         <v>435</v>
       </c>
       <c r="G143" t="n">
-        <v>-92172.22449999995</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>231</v>
-      </c>
-      <c r="J143" t="n">
-        <v>233</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5154,22 +5465,15 @@
         <v>2.0133</v>
       </c>
       <c r="G144" t="n">
-        <v>-92170.21119999995</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>232</v>
-      </c>
-      <c r="J144" t="n">
-        <v>232</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5191,24 +5495,15 @@
         <v>217</v>
       </c>
       <c r="G145" t="n">
-        <v>-92387.21119999995</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>232</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5230,26 +5525,15 @@
         <v>2276.698</v>
       </c>
       <c r="G146" t="n">
-        <v>-94663.90919999995</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>232</v>
-      </c>
-      <c r="J146" t="n">
-        <v>232</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5271,22 +5555,15 @@
         <v>6075.8111</v>
       </c>
       <c r="G147" t="n">
-        <v>-94663.90919999995</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>231</v>
-      </c>
-      <c r="J147" t="n">
-        <v>231</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5308,26 +5585,15 @@
         <v>246.3047</v>
       </c>
       <c r="G148" t="n">
-        <v>-94417.60449999996</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>231</v>
-      </c>
-      <c r="J148" t="n">
-        <v>231</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5349,24 +5615,15 @@
         <v>699</v>
       </c>
       <c r="G149" t="n">
-        <v>-95116.60449999996</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>231</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5388,22 +5645,15 @@
         <v>4326.8111</v>
       </c>
       <c r="G150" t="n">
-        <v>-95116.60449999996</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>231</v>
-      </c>
-      <c r="J150" t="n">
-        <v>231</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5425,26 +5675,15 @@
         <v>552.6535</v>
       </c>
       <c r="G151" t="n">
-        <v>-95116.60449999996</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>231</v>
-      </c>
-      <c r="J151" t="n">
-        <v>231</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5466,26 +5705,15 @@
         <v>2549</v>
       </c>
       <c r="G152" t="n">
-        <v>-95116.60449999996</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>231</v>
-      </c>
-      <c r="J152" t="n">
-        <v>231</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5507,22 +5735,15 @@
         <v>158</v>
       </c>
       <c r="G153" t="n">
-        <v>-95116.60449999996</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>231</v>
-      </c>
-      <c r="J153" t="n">
-        <v>231</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
